--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1547240.005032413</v>
+        <v>1545421.243472916</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="H9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,32 +1288,32 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>119.9918554017974</v>
+        <v>194.8080740895817</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>273.924071557103</v>
       </c>
       <c r="E11" t="n">
-        <v>301.1714000086819</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>326.1170756781315</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>331.8279204293739</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.37373550471037</v>
+        <v>66.37373550471038</v>
       </c>
       <c r="T11" t="n">
         <v>130.4482591609531</v>
       </c>
       <c r="U11" t="n">
-        <v>170.3694150824821</v>
+        <v>170.369415082482</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>246.993288406555</v>
       </c>
       <c r="W11" t="n">
         <v>268.4819986538331</v>
@@ -1436,7 +1436,7 @@
         <v>288.9721306148891</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>305.4789685924736</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1467,7 +1467,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I12" t="n">
-        <v>39.3664391521176</v>
+        <v>39.36643915211737</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.937780393757109</v>
+        <v>9.937780393757137</v>
       </c>
       <c r="S12" t="n">
         <v>144.6923595985481</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.07301011835737</v>
+        <v>99.07301011835736</v>
       </c>
       <c r="C13" t="n">
-        <v>86.48785103504791</v>
+        <v>86.4878510350479</v>
       </c>
       <c r="D13" t="n">
-        <v>67.85650295463243</v>
+        <v>67.85650295463242</v>
       </c>
       <c r="E13" t="n">
-        <v>65.67499258298925</v>
+        <v>65.67499258298923</v>
       </c>
       <c r="F13" t="n">
-        <v>64.66207795935132</v>
+        <v>64.66207795935131</v>
       </c>
       <c r="G13" t="n">
-        <v>86.01377381710122</v>
+        <v>86.01377381710121</v>
       </c>
       <c r="H13" t="n">
-        <v>70.63698155961872</v>
+        <v>70.6369815596187</v>
       </c>
       <c r="I13" t="n">
-        <v>38.05584158651168</v>
+        <v>38.05584158651169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>41.75812428551632</v>
       </c>
       <c r="S13" t="n">
-        <v>122.0271060561226</v>
+        <v>122.0271060561225</v>
       </c>
       <c r="T13" t="n">
-        <v>141.9814314141973</v>
+        <v>141.9814314141972</v>
       </c>
       <c r="U13" t="n">
-        <v>205.4936100850322</v>
+        <v>205.4936100850321</v>
       </c>
       <c r="V13" t="n">
         <v>171.3786732602481</v>
@@ -1594,7 +1594,7 @@
         <v>144.9506853254572</v>
       </c>
       <c r="Y13" t="n">
-        <v>137.8256832885157</v>
+        <v>137.8256832885149</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.9748715999007</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>284.5139217074276</v>
       </c>
       <c r="D14" t="n">
-        <v>273.924071557103</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>301.1714000086819</v>
+        <v>105.0944366676809</v>
       </c>
       <c r="F14" t="n">
         <v>326.1170756781315</v>
@@ -1622,7 +1622,7 @@
         <v>331.8279204293739</v>
       </c>
       <c r="H14" t="n">
-        <v>94.59966564024776</v>
+        <v>230.9021637362736</v>
       </c>
       <c r="I14" t="n">
         <v>25.01422718418367</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.37373550471037</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.448259160953</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>170.369415082482</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>268.4819986538331</v>
       </c>
       <c r="X14" t="n">
         <v>288.9721306148891</v>
       </c>
       <c r="Y14" t="n">
-        <v>305.4789685924737</v>
+        <v>305.4789685924736</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1704,7 +1704,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I15" t="n">
-        <v>39.36643915211759</v>
+        <v>39.36643915211737</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.937780393757095</v>
+        <v>9.937780393757109</v>
       </c>
       <c r="S15" t="n">
         <v>144.6923595985481</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.07301011835737</v>
+        <v>99.07301011835736</v>
       </c>
       <c r="C16" t="n">
-        <v>86.48785103504791</v>
+        <v>86.4878510350479</v>
       </c>
       <c r="D16" t="n">
-        <v>67.85650295463243</v>
+        <v>67.85650295463242</v>
       </c>
       <c r="E16" t="n">
-        <v>65.67499258298925</v>
+        <v>65.67499258298923</v>
       </c>
       <c r="F16" t="n">
-        <v>64.66207795935132</v>
+        <v>64.66207795935131</v>
       </c>
       <c r="G16" t="n">
         <v>86.01377381710122</v>
       </c>
       <c r="H16" t="n">
-        <v>70.63698155961872</v>
+        <v>70.6369815596187</v>
       </c>
       <c r="I16" t="n">
-        <v>38.05584158651168</v>
+        <v>38.05584158651166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.75812428551631</v>
+        <v>41.75812428551632</v>
       </c>
       <c r="S16" t="n">
-        <v>122.0271060561225</v>
+        <v>122.0271060561227</v>
       </c>
       <c r="T16" t="n">
-        <v>141.9814314141973</v>
+        <v>141.9814314141972</v>
       </c>
       <c r="U16" t="n">
-        <v>205.4936100850322</v>
+        <v>205.4936100850321</v>
       </c>
       <c r="V16" t="n">
         <v>171.3786732602481</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>261.5538482945463</v>
+        <v>263.6602915389856</v>
       </c>
       <c r="C17" t="n">
-        <v>246.1993416465125</v>
+        <v>246.1993416465126</v>
       </c>
       <c r="D17" t="n">
-        <v>235.6094914961879</v>
+        <v>235.609491496188</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>287.8024956172164</v>
+        <v>287.8024956172165</v>
       </c>
       <c r="G17" t="n">
-        <v>293.5133403684587</v>
+        <v>293.5133403684588</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>192.5875836753586</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.05915544379523</v>
+        <v>28.05915544379534</v>
       </c>
       <c r="T17" t="n">
-        <v>92.13367910003791</v>
+        <v>92.13367910003802</v>
       </c>
       <c r="U17" t="n">
-        <v>132.0548350215669</v>
+        <v>132.054835021567</v>
       </c>
       <c r="V17" t="n">
-        <v>208.6787083456398</v>
+        <v>208.67870834564</v>
       </c>
       <c r="W17" t="n">
-        <v>230.167418592918</v>
+        <v>230.1674185929181</v>
       </c>
       <c r="X17" t="n">
-        <v>250.657550553974</v>
+        <v>250.6575505539741</v>
       </c>
       <c r="Y17" t="n">
-        <v>267.1643885315585</v>
+        <v>72.47036161175957</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8904109003521</v>
+        <v>135.8904109003518</v>
       </c>
       <c r="H18" t="n">
         <v>98.20149690836232</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.75843005744223</v>
+        <v>60.75843005744234</v>
       </c>
       <c r="C19" t="n">
-        <v>48.17327097413276</v>
+        <v>48.17327097413288</v>
       </c>
       <c r="D19" t="n">
-        <v>29.54192289371728</v>
+        <v>29.5419228937174</v>
       </c>
       <c r="E19" t="n">
-        <v>27.3604125220741</v>
+        <v>27.36041252207421</v>
       </c>
       <c r="F19" t="n">
-        <v>26.34749789843617</v>
+        <v>26.34749789843629</v>
       </c>
       <c r="G19" t="n">
-        <v>47.69919375618608</v>
+        <v>47.69919375618619</v>
       </c>
       <c r="H19" t="n">
-        <v>32.32240149870357</v>
+        <v>32.32240149870368</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.443544224601176</v>
+        <v>3.44354422460129</v>
       </c>
       <c r="S19" t="n">
-        <v>83.71252599520739</v>
+        <v>83.7125259952075</v>
       </c>
       <c r="T19" t="n">
-        <v>103.6668513532821</v>
+        <v>103.6668513532822</v>
       </c>
       <c r="U19" t="n">
-        <v>167.1790300241171</v>
+        <v>167.1790300241172</v>
       </c>
       <c r="V19" t="n">
-        <v>133.0640931993329</v>
+        <v>133.0640931993331</v>
       </c>
       <c r="W19" t="n">
-        <v>167.4494482120959</v>
+        <v>167.4494482120961</v>
       </c>
       <c r="X19" t="n">
-        <v>106.6361052645421</v>
+        <v>106.6361052645422</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.51110322759972</v>
+        <v>99.51110322759983</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>263.6602915389855</v>
+        <v>263.6602915389856</v>
       </c>
       <c r="C20" t="n">
-        <v>246.1993416465125</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>235.6094914961879</v>
+        <v>235.609491496188</v>
       </c>
       <c r="E20" t="n">
-        <v>262.8568199477667</v>
+        <v>262.8568199477668</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>287.8024956172165</v>
       </c>
       <c r="G20" t="n">
-        <v>293.5133403684587</v>
+        <v>293.5133403684588</v>
       </c>
       <c r="H20" t="n">
-        <v>192.5875836753585</v>
+        <v>192.5875836753586</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.05915544379523</v>
+        <v>28.05915544379535</v>
       </c>
       <c r="T20" t="n">
-        <v>92.13367910003791</v>
+        <v>92.13367910003801</v>
       </c>
       <c r="U20" t="n">
-        <v>132.0548350215669</v>
+        <v>132.054835021567</v>
       </c>
       <c r="V20" t="n">
-        <v>208.6787083456398</v>
+        <v>208.67870834564</v>
       </c>
       <c r="W20" t="n">
-        <v>230.167418592918</v>
+        <v>18.81591337186541</v>
       </c>
       <c r="X20" t="n">
-        <v>250.657550553974</v>
+        <v>250.6575505539741</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.41603728121055</v>
+        <v>267.1643885315586</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>135.8904109003521</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.75843005744223</v>
+        <v>60.75843005744234</v>
       </c>
       <c r="C22" t="n">
-        <v>48.17327097413276</v>
+        <v>48.17327097413288</v>
       </c>
       <c r="D22" t="n">
-        <v>29.54192289371728</v>
+        <v>29.5419228937174</v>
       </c>
       <c r="E22" t="n">
-        <v>27.3604125220741</v>
+        <v>27.36041252207421</v>
       </c>
       <c r="F22" t="n">
-        <v>26.34749789843617</v>
+        <v>26.34749789843629</v>
       </c>
       <c r="G22" t="n">
-        <v>47.69919375618608</v>
+        <v>47.69919375618619</v>
       </c>
       <c r="H22" t="n">
-        <v>32.32240149870357</v>
+        <v>32.32240149870368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.443544224601176</v>
+        <v>3.44354422460129</v>
       </c>
       <c r="S22" t="n">
-        <v>83.71252599520739</v>
+        <v>83.7125259952075</v>
       </c>
       <c r="T22" t="n">
-        <v>103.6668513532821</v>
+        <v>103.6668513532822</v>
       </c>
       <c r="U22" t="n">
-        <v>167.1790300241171</v>
+        <v>167.1790300241172</v>
       </c>
       <c r="V22" t="n">
-        <v>133.0640931993329</v>
+        <v>133.0640931993331</v>
       </c>
       <c r="W22" t="n">
-        <v>167.4494482120959</v>
+        <v>167.4494482120961</v>
       </c>
       <c r="X22" t="n">
-        <v>106.6361052645421</v>
+        <v>106.6361052645422</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.51110322759972</v>
+        <v>99.51110322759983</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>263.6602915389855</v>
+        <v>263.6602915389856</v>
       </c>
       <c r="C23" t="n">
-        <v>246.1993416465125</v>
+        <v>246.1993416465126</v>
       </c>
       <c r="D23" t="n">
-        <v>235.6094914961879</v>
+        <v>235.609491496188</v>
       </c>
       <c r="E23" t="n">
-        <v>262.8568199477667</v>
+        <v>262.8568199477668</v>
       </c>
       <c r="F23" t="n">
-        <v>287.8024956172164</v>
+        <v>287.8024956172165</v>
       </c>
       <c r="G23" t="n">
-        <v>293.5133403684587</v>
+        <v>293.5133403684588</v>
       </c>
       <c r="H23" t="n">
-        <v>192.5875836753585</v>
+        <v>192.5875836753586</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.05915544379523</v>
+        <v>28.05915544379535</v>
       </c>
       <c r="T23" t="n">
-        <v>92.1336791000379</v>
+        <v>92.13367910003801</v>
       </c>
       <c r="U23" t="n">
-        <v>132.0548350215669</v>
+        <v>132.054835021567</v>
       </c>
       <c r="V23" t="n">
-        <v>208.6787083456398</v>
+        <v>208.67870834564</v>
       </c>
       <c r="W23" t="n">
-        <v>230.167418592918</v>
+        <v>230.1674185929181</v>
       </c>
       <c r="X23" t="n">
-        <v>250.657550553974</v>
+        <v>250.6575505539741</v>
       </c>
       <c r="Y23" t="n">
-        <v>267.1643885315585</v>
+        <v>267.1643885315586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.75843005744223</v>
+        <v>60.75843005744234</v>
       </c>
       <c r="C25" t="n">
-        <v>48.17327097413276</v>
+        <v>48.17327097413288</v>
       </c>
       <c r="D25" t="n">
-        <v>29.54192289371728</v>
+        <v>29.5419228937174</v>
       </c>
       <c r="E25" t="n">
-        <v>27.3604125220741</v>
+        <v>27.36041252207421</v>
       </c>
       <c r="F25" t="n">
-        <v>26.34749789843617</v>
+        <v>26.34749789843629</v>
       </c>
       <c r="G25" t="n">
-        <v>47.69919375618608</v>
+        <v>47.69919375618619</v>
       </c>
       <c r="H25" t="n">
-        <v>32.32240149870357</v>
+        <v>32.32240149870368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.443544224601176</v>
+        <v>3.44354422460129</v>
       </c>
       <c r="S25" t="n">
-        <v>83.71252599520739</v>
+        <v>83.7125259952075</v>
       </c>
       <c r="T25" t="n">
-        <v>103.6668513532821</v>
+        <v>103.6668513532822</v>
       </c>
       <c r="U25" t="n">
-        <v>167.1790300241171</v>
+        <v>167.1790300241172</v>
       </c>
       <c r="V25" t="n">
-        <v>133.0640931993329</v>
+        <v>133.0640931993331</v>
       </c>
       <c r="W25" t="n">
-        <v>167.4494482120959</v>
+        <v>167.4494482120961</v>
       </c>
       <c r="X25" t="n">
-        <v>106.6361052645421</v>
+        <v>106.6361052645422</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.51110322759972</v>
+        <v>99.51110322759983</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.7538421541962</v>
+        <v>303.7538421541961</v>
       </c>
       <c r="C26" t="n">
-        <v>286.2928922617232</v>
+        <v>286.2928922617231</v>
       </c>
       <c r="D26" t="n">
-        <v>275.7030421113986</v>
+        <v>275.7030421113985</v>
       </c>
       <c r="E26" t="n">
         <v>302.9503705629774</v>
       </c>
       <c r="F26" t="n">
-        <v>327.8960462324271</v>
+        <v>327.896046232427</v>
       </c>
       <c r="G26" t="n">
         <v>333.6068909836694</v>
       </c>
       <c r="H26" t="n">
-        <v>232.6811342905692</v>
+        <v>232.6811342905691</v>
       </c>
       <c r="I26" t="n">
-        <v>26.79319773847922</v>
+        <v>26.79319773847919</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>68.15270605900591</v>
       </c>
       <c r="T26" t="n">
-        <v>132.2272297152486</v>
+        <v>132.2272297152485</v>
       </c>
       <c r="U26" t="n">
         <v>172.1483856367776</v>
@@ -2618,7 +2618,7 @@
         <v>270.2609692081286</v>
       </c>
       <c r="X26" t="n">
-        <v>290.7511011691847</v>
+        <v>290.7511011691846</v>
       </c>
       <c r="Y26" t="n">
         <v>307.2579391467692</v>
@@ -2713,25 +2713,25 @@
         <v>100.8519806726529</v>
       </c>
       <c r="C28" t="n">
-        <v>88.26682158934345</v>
+        <v>88.26682158934342</v>
       </c>
       <c r="D28" t="n">
-        <v>69.63547350892797</v>
+        <v>69.63547350892794</v>
       </c>
       <c r="E28" t="n">
-        <v>67.45396313728479</v>
+        <v>67.45396313728476</v>
       </c>
       <c r="F28" t="n">
-        <v>66.44104851364686</v>
+        <v>66.44104851364683</v>
       </c>
       <c r="G28" t="n">
-        <v>87.79274437139678</v>
+        <v>87.79274437139675</v>
       </c>
       <c r="H28" t="n">
-        <v>72.41595211391426</v>
+        <v>72.41595211391423</v>
       </c>
       <c r="I28" t="n">
-        <v>39.83481214080722</v>
+        <v>39.83481214080719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.53709483981186</v>
+        <v>43.53709483981184</v>
       </c>
       <c r="S28" t="n">
-        <v>123.8060766104181</v>
+        <v>123.806076610418</v>
       </c>
       <c r="T28" t="n">
-        <v>101.3483207776434</v>
+        <v>143.7604019684928</v>
       </c>
       <c r="U28" t="n">
-        <v>207.2725806393277</v>
+        <v>164.8604994484797</v>
       </c>
       <c r="V28" t="n">
         <v>173.1576438145436</v>
@@ -2776,7 +2776,7 @@
         <v>207.5429988273066</v>
       </c>
       <c r="X28" t="n">
-        <v>146.7296558797528</v>
+        <v>146.7296558797527</v>
       </c>
       <c r="Y28" t="n">
         <v>139.6046538428104</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.7538421541963</v>
+        <v>303.7538421541961</v>
       </c>
       <c r="C29" t="n">
-        <v>286.2928922617232</v>
+        <v>286.2928922617231</v>
       </c>
       <c r="D29" t="n">
-        <v>275.7030421113986</v>
+        <v>275.7030421113985</v>
       </c>
       <c r="E29" t="n">
-        <v>302.9503705629775</v>
+        <v>302.9503705629774</v>
       </c>
       <c r="F29" t="n">
-        <v>327.8960462324271</v>
+        <v>327.896046232427</v>
       </c>
       <c r="G29" t="n">
-        <v>333.6068909836695</v>
+        <v>333.6068909836694</v>
       </c>
       <c r="H29" t="n">
-        <v>232.6811342905692</v>
+        <v>232.6811342905691</v>
       </c>
       <c r="I29" t="n">
-        <v>26.79319773847928</v>
+        <v>26.79319773847919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>68.15270605900596</v>
+        <v>68.15270605900591</v>
       </c>
       <c r="T29" t="n">
-        <v>132.2272297152487</v>
+        <v>132.2272297152485</v>
       </c>
       <c r="U29" t="n">
-        <v>172.1483856367777</v>
+        <v>172.1483856367776</v>
       </c>
       <c r="V29" t="n">
-        <v>248.7722589608506</v>
+        <v>248.7722589608505</v>
       </c>
       <c r="W29" t="n">
-        <v>270.2609692081287</v>
+        <v>270.2609692081286</v>
       </c>
       <c r="X29" t="n">
-        <v>290.7511011691847</v>
+        <v>290.7511011691846</v>
       </c>
       <c r="Y29" t="n">
-        <v>307.2579391467693</v>
+        <v>307.2579391467692</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.851980672653</v>
+        <v>100.8519806726529</v>
       </c>
       <c r="C31" t="n">
-        <v>88.26682158934351</v>
+        <v>88.26682158934342</v>
       </c>
       <c r="D31" t="n">
-        <v>69.63547350892803</v>
+        <v>69.63547350892794</v>
       </c>
       <c r="E31" t="n">
-        <v>67.45396313728484</v>
+        <v>67.45396313728476</v>
       </c>
       <c r="F31" t="n">
-        <v>66.44104851364692</v>
+        <v>66.44104851364683</v>
       </c>
       <c r="G31" t="n">
-        <v>87.79274437139684</v>
+        <v>87.79274437139675</v>
       </c>
       <c r="H31" t="n">
-        <v>30.00387092306405</v>
+        <v>72.41595211391423</v>
       </c>
       <c r="I31" t="n">
-        <v>39.83481214080728</v>
+        <v>39.83481214080719</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.53709483981192</v>
+        <v>43.53709483981184</v>
       </c>
       <c r="S31" t="n">
-        <v>123.8060766104182</v>
+        <v>123.806076610418</v>
       </c>
       <c r="T31" t="n">
-        <v>143.7604019684929</v>
+        <v>143.7604019684927</v>
       </c>
       <c r="U31" t="n">
-        <v>207.2725806393278</v>
+        <v>207.2725806393277</v>
       </c>
       <c r="V31" t="n">
-        <v>173.1576438145437</v>
+        <v>173.1576438145436</v>
       </c>
       <c r="W31" t="n">
-        <v>207.5429988273067</v>
+        <v>207.5429988273066</v>
       </c>
       <c r="X31" t="n">
-        <v>146.7296558797528</v>
+        <v>104.317574688905</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.6046538428105</v>
+        <v>139.6046538428104</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>230.9021637362736</v>
       </c>
       <c r="I32" t="n">
-        <v>25.01422718418371</v>
+        <v>25.01422718418368</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.37373550471041</v>
+        <v>66.37373550471038</v>
       </c>
       <c r="T32" t="n">
         <v>130.4482591609531</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.0730101183574</v>
+        <v>99.07301011835737</v>
       </c>
       <c r="C34" t="n">
-        <v>86.48785103504794</v>
+        <v>86.48785103504791</v>
       </c>
       <c r="D34" t="n">
-        <v>67.85650295463246</v>
+        <v>67.85650295463243</v>
       </c>
       <c r="E34" t="n">
-        <v>65.67499258298928</v>
+        <v>65.67499258298925</v>
       </c>
       <c r="F34" t="n">
-        <v>64.66207795935135</v>
+        <v>64.66207795935132</v>
       </c>
       <c r="G34" t="n">
-        <v>86.01377381710127</v>
+        <v>86.01377381710124</v>
       </c>
       <c r="H34" t="n">
-        <v>70.63698155961875</v>
+        <v>70.63698155961872</v>
       </c>
       <c r="I34" t="n">
-        <v>38.0558415865117</v>
+        <v>38.05584158651168</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.75812428551636</v>
+        <v>41.75812428551633</v>
       </c>
       <c r="S34" t="n">
-        <v>122.0271060561226</v>
+        <v>122.0271060561225</v>
       </c>
       <c r="T34" t="n">
-        <v>141.9814314141973</v>
+        <v>141.9814314141972</v>
       </c>
       <c r="U34" t="n">
         <v>205.4936100850322</v>
@@ -3266,7 +3266,7 @@
         <v>301.9748715999007</v>
       </c>
       <c r="C35" t="n">
-        <v>284.5139217074277</v>
+        <v>284.5139217074276</v>
       </c>
       <c r="D35" t="n">
         <v>273.924071557103</v>
@@ -3284,7 +3284,7 @@
         <v>230.9021637362736</v>
       </c>
       <c r="I35" t="n">
-        <v>25.01422718418372</v>
+        <v>25.0142271841837</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.37373550471042</v>
+        <v>66.3737355047104</v>
       </c>
       <c r="T35" t="n">
         <v>130.4482591609531</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.07301011835742</v>
+        <v>99.07301011835739</v>
       </c>
       <c r="C37" t="n">
-        <v>86.48785103504795</v>
+        <v>86.48785103504792</v>
       </c>
       <c r="D37" t="n">
-        <v>67.85650295463248</v>
+        <v>67.85650295463245</v>
       </c>
       <c r="E37" t="n">
-        <v>65.67499258298929</v>
+        <v>65.67499258298926</v>
       </c>
       <c r="F37" t="n">
-        <v>64.66207795935136</v>
+        <v>64.66207795935134</v>
       </c>
       <c r="G37" t="n">
-        <v>86.01377381710127</v>
+        <v>86.01377381710124</v>
       </c>
       <c r="H37" t="n">
-        <v>70.63698155961876</v>
+        <v>70.63698155961873</v>
       </c>
       <c r="I37" t="n">
-        <v>38.05584158651173</v>
+        <v>38.0558415865117</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75812428551637</v>
+        <v>41.75812428551634</v>
       </c>
       <c r="S37" t="n">
         <v>122.0271060561226</v>
@@ -3487,7 +3487,7 @@
         <v>205.7640282730111</v>
       </c>
       <c r="X37" t="n">
-        <v>144.9506853254573</v>
+        <v>144.9506853254572</v>
       </c>
       <c r="Y37" t="n">
         <v>137.8256832885149</v>
@@ -3503,7 +3503,7 @@
         <v>301.9748715999007</v>
       </c>
       <c r="C38" t="n">
-        <v>284.5139217074277</v>
+        <v>284.5139217074276</v>
       </c>
       <c r="D38" t="n">
         <v>273.924071557103</v>
@@ -3521,7 +3521,7 @@
         <v>230.9021637362736</v>
       </c>
       <c r="I38" t="n">
-        <v>25.01422718418372</v>
+        <v>25.0142271841837</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.37373550471042</v>
+        <v>66.3737355047104</v>
       </c>
       <c r="T38" t="n">
         <v>130.4482591609531</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.07301011835742</v>
+        <v>99.07301011835739</v>
       </c>
       <c r="C40" t="n">
-        <v>86.48785103504795</v>
+        <v>86.48785103504792</v>
       </c>
       <c r="D40" t="n">
-        <v>67.85650295463248</v>
+        <v>67.85650295463245</v>
       </c>
       <c r="E40" t="n">
-        <v>65.67499258298929</v>
+        <v>65.67499258298926</v>
       </c>
       <c r="F40" t="n">
-        <v>64.66207795935136</v>
+        <v>64.66207795935134</v>
       </c>
       <c r="G40" t="n">
-        <v>86.01377381710127</v>
+        <v>86.01377381710124</v>
       </c>
       <c r="H40" t="n">
-        <v>70.63698155961876</v>
+        <v>70.63698155961873</v>
       </c>
       <c r="I40" t="n">
-        <v>38.05584158651173</v>
+        <v>38.0558415865117</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75812428551637</v>
+        <v>41.75812428551634</v>
       </c>
       <c r="S40" t="n">
         <v>122.0271060561226</v>
@@ -3724,7 +3724,7 @@
         <v>205.7640282730111</v>
       </c>
       <c r="X40" t="n">
-        <v>144.9506853254573</v>
+        <v>144.9506853254572</v>
       </c>
       <c r="Y40" t="n">
         <v>137.8256832885149</v>
@@ -3740,25 +3740,25 @@
         <v>301.9748715999007</v>
       </c>
       <c r="C41" t="n">
-        <v>284.5139217074276</v>
+        <v>284.5139217074277</v>
       </c>
       <c r="D41" t="n">
-        <v>273.924071557103</v>
+        <v>273.9240715571031</v>
       </c>
       <c r="E41" t="n">
         <v>301.1714000086819</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1170756781315</v>
+        <v>326.1170756781316</v>
       </c>
       <c r="G41" t="n">
         <v>331.8279204293739</v>
       </c>
       <c r="H41" t="n">
-        <v>230.9021637362736</v>
+        <v>230.9021637362737</v>
       </c>
       <c r="I41" t="n">
-        <v>25.01422718418371</v>
+        <v>25.01422718418375</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.37373550471042</v>
+        <v>66.37373550471045</v>
       </c>
       <c r="T41" t="n">
         <v>130.4482591609531</v>
@@ -3797,13 +3797,13 @@
         <v>170.3694150824821</v>
       </c>
       <c r="V41" t="n">
-        <v>246.993288406555</v>
+        <v>246.9932884065551</v>
       </c>
       <c r="W41" t="n">
-        <v>268.4819986538331</v>
+        <v>268.4819986538332</v>
       </c>
       <c r="X41" t="n">
-        <v>288.9721306148891</v>
+        <v>288.9721306148892</v>
       </c>
       <c r="Y41" t="n">
         <v>305.4789685924737</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.0730101183574</v>
+        <v>99.07301011835744</v>
       </c>
       <c r="C43" t="n">
-        <v>86.48785103504794</v>
+        <v>86.48785103504798</v>
       </c>
       <c r="D43" t="n">
-        <v>67.85650295463246</v>
+        <v>67.8565029546325</v>
       </c>
       <c r="E43" t="n">
-        <v>65.67499258298928</v>
+        <v>65.67499258298932</v>
       </c>
       <c r="F43" t="n">
-        <v>64.66207795935135</v>
+        <v>64.66207795935139</v>
       </c>
       <c r="G43" t="n">
-        <v>86.01377381710125</v>
+        <v>86.0137738171013</v>
       </c>
       <c r="H43" t="n">
-        <v>70.63698155961875</v>
+        <v>70.63698155961879</v>
       </c>
       <c r="I43" t="n">
-        <v>38.05584158651171</v>
+        <v>38.05584158651175</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75812428551635</v>
+        <v>41.75812428551639</v>
       </c>
       <c r="S43" t="n">
         <v>122.0271060561226</v>
@@ -3952,7 +3952,7 @@
         <v>141.9814314141973</v>
       </c>
       <c r="U43" t="n">
-        <v>205.4936100850322</v>
+        <v>205.4936100850323</v>
       </c>
       <c r="V43" t="n">
         <v>171.3786732602481</v>
@@ -3961,7 +3961,7 @@
         <v>205.7640282730111</v>
       </c>
       <c r="X43" t="n">
-        <v>144.9506853254572</v>
+        <v>144.9506853254573</v>
       </c>
       <c r="Y43" t="n">
         <v>137.8256832885149</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>301.9748715999006</v>
+        <v>301.9748715999007</v>
       </c>
       <c r="C44" t="n">
-        <v>284.5139217074276</v>
+        <v>284.5139217074277</v>
       </c>
       <c r="D44" t="n">
         <v>273.924071557103</v>
       </c>
       <c r="E44" t="n">
-        <v>301.1714000086818</v>
+        <v>301.1714000086819</v>
       </c>
       <c r="F44" t="n">
         <v>326.1170756781315</v>
       </c>
       <c r="G44" t="n">
-        <v>331.8279204293738</v>
+        <v>331.8279204293739</v>
       </c>
       <c r="H44" t="n">
-        <v>230.9021637362736</v>
+        <v>230.9021637362728</v>
       </c>
       <c r="I44" t="n">
-        <v>25.01422718418368</v>
+        <v>25.01422718418371</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.37373550471038</v>
+        <v>66.37373550471041</v>
       </c>
       <c r="T44" t="n">
-        <v>130.448259160953</v>
+        <v>130.4482591609531</v>
       </c>
       <c r="U44" t="n">
-        <v>170.3694150824823</v>
+        <v>170.3694150824821</v>
       </c>
       <c r="V44" t="n">
-        <v>246.9932884065549</v>
+        <v>246.993288406555</v>
       </c>
       <c r="W44" t="n">
-        <v>268.481998653833</v>
+        <v>268.4819986538331</v>
       </c>
       <c r="X44" t="n">
         <v>288.9721306148891</v>
       </c>
       <c r="Y44" t="n">
-        <v>305.4789685924736</v>
+        <v>305.4789685924737</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I45" t="n">
-        <v>39.36643915211761</v>
+        <v>39.36643915211759</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.937780393757137</v>
+        <v>9.937780393757095</v>
       </c>
       <c r="S45" t="n">
         <v>144.6923595985481</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.07301011835735</v>
+        <v>99.07301011835742</v>
       </c>
       <c r="C46" t="n">
-        <v>86.48785103504788</v>
+        <v>86.48785103504795</v>
       </c>
       <c r="D46" t="n">
-        <v>67.8565029546324</v>
+        <v>67.85650295463248</v>
       </c>
       <c r="E46" t="n">
-        <v>65.67499258298922</v>
+        <v>65.67499258298929</v>
       </c>
       <c r="F46" t="n">
-        <v>64.66207795935129</v>
+        <v>64.66207795935136</v>
       </c>
       <c r="G46" t="n">
-        <v>86.01377381710121</v>
+        <v>86.01377381710128</v>
       </c>
       <c r="H46" t="n">
-        <v>70.63698155961869</v>
+        <v>70.63698155961876</v>
       </c>
       <c r="I46" t="n">
-        <v>38.05584158651167</v>
+        <v>38.05584158651173</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75812428551631</v>
+        <v>41.75812428551635</v>
       </c>
       <c r="S46" t="n">
-        <v>122.0271060561225</v>
+        <v>122.0271060561226</v>
       </c>
       <c r="T46" t="n">
-        <v>141.9814314141972</v>
+        <v>141.9814314141973</v>
       </c>
       <c r="U46" t="n">
-        <v>205.4936100850321</v>
+        <v>205.4936100850322</v>
       </c>
       <c r="V46" t="n">
-        <v>171.378673260248</v>
+        <v>171.3786732602481</v>
       </c>
       <c r="W46" t="n">
-        <v>205.764028273011</v>
+        <v>205.7640282730111</v>
       </c>
       <c r="X46" t="n">
-        <v>144.9506853254572</v>
+        <v>144.9506853254573</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.8256832885148</v>
+        <v>137.8256832885149</v>
       </c>
     </row>
   </sheetData>
@@ -4805,13 +4805,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N8" t="n">
         <v>27.50418296684575</v>
@@ -4823,31 +4823,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="H9" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
@@ -4887,46 +4887,46 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="N9" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>14.16465422792556</v>
+      </c>
+      <c r="P9" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N9" t="n">
-        <v>20.69689768255142</v>
-      </c>
-      <c r="O9" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="P9" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V9" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W9" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X9" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C10" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E10" t="n">
         <v>7.495584408540386</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
@@ -4972,7 +4972,7 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4999,13 +4999,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="W10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1556.225114906329</v>
+        <v>922.6003919903565</v>
       </c>
       <c r="C11" t="n">
-        <v>1556.225114906329</v>
+        <v>922.6003919903565</v>
       </c>
       <c r="D11" t="n">
-        <v>1279.534133535518</v>
+        <v>645.9094106195453</v>
       </c>
       <c r="E11" t="n">
-        <v>975.3205981732132</v>
+        <v>645.9094106195453</v>
       </c>
       <c r="F11" t="n">
-        <v>645.909410619545</v>
+        <v>645.9094106195453</v>
       </c>
       <c r="G11" t="n">
-        <v>310.7296930141169</v>
+        <v>310.7296930141171</v>
       </c>
       <c r="H11" t="n">
-        <v>77.49518418959831</v>
+        <v>77.49518418959833</v>
       </c>
       <c r="I11" t="n">
         <v>52.22828804395821</v>
       </c>
       <c r="J11" t="n">
-        <v>268.5975715697584</v>
+        <v>116.5498478389605</v>
       </c>
       <c r="K11" t="n">
-        <v>670.8591621076733</v>
+        <v>240.6721616957387</v>
       </c>
       <c r="L11" t="n">
-        <v>861.7456299507236</v>
+        <v>845.0432319437347</v>
       </c>
       <c r="M11" t="n">
-        <v>1508.070694494706</v>
+        <v>1491.368296487718</v>
       </c>
       <c r="N11" t="n">
-        <v>1760.701181581582</v>
+        <v>2137.693361031701</v>
       </c>
       <c r="O11" t="n">
-        <v>2362.909904983184</v>
+        <v>2362.909904983185</v>
       </c>
       <c r="P11" t="n">
-        <v>2520.626013817923</v>
+        <v>2520.626013817924</v>
       </c>
       <c r="Q11" t="n">
         <v>2590.891496707627</v>
@@ -5066,25 +5066,25 @@
         <v>2611.41440219791</v>
       </c>
       <c r="S11" t="n">
-        <v>2544.370224920425</v>
+        <v>2544.370224920426</v>
       </c>
       <c r="T11" t="n">
-        <v>2412.604306576028</v>
+        <v>2412.604306576029</v>
       </c>
       <c r="U11" t="n">
         <v>2240.513988310895</v>
       </c>
       <c r="V11" t="n">
-        <v>2240.513988310895</v>
+        <v>1991.025818203264</v>
       </c>
       <c r="W11" t="n">
-        <v>1969.32005027672</v>
+        <v>1719.831880169089</v>
       </c>
       <c r="X11" t="n">
-        <v>1677.429009251579</v>
+        <v>1427.940839143948</v>
       </c>
       <c r="Y11" t="n">
-        <v>1677.429009251579</v>
+        <v>1119.376224404075</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957.608292450596</v>
+        <v>957.6082924505956</v>
       </c>
       <c r="C12" t="n">
-        <v>783.155263169469</v>
+        <v>783.1552631694686</v>
       </c>
       <c r="D12" t="n">
-        <v>634.2208535082177</v>
+        <v>634.2208535082174</v>
       </c>
       <c r="E12" t="n">
-        <v>474.9833985027622</v>
+        <v>474.9833985027619</v>
       </c>
       <c r="F12" t="n">
-        <v>328.4488405296471</v>
+        <v>328.4488405296469</v>
       </c>
       <c r="G12" t="n">
-        <v>191.1857992161601</v>
+        <v>191.1857992161599</v>
       </c>
       <c r="H12" t="n">
-        <v>91.99236799559215</v>
+        <v>91.99236799559192</v>
       </c>
       <c r="I12" t="n">
         <v>52.22828804395821</v>
@@ -5121,19 +5121,19 @@
         <v>187.4029713509376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.2382939017062</v>
+        <v>365.4312538628404</v>
       </c>
       <c r="L12" t="n">
-        <v>825.555194890168</v>
+        <v>540.6162130008776</v>
       </c>
       <c r="M12" t="n">
-        <v>1471.880259434151</v>
+        <v>1186.94127754486</v>
       </c>
       <c r="N12" t="n">
-        <v>1716.001397798134</v>
+        <v>1833.266342088843</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.028447350852</v>
+        <v>2424.293391641561</v>
       </c>
       <c r="P12" t="n">
         <v>2566.363496141784</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.4586127866376</v>
+        <v>536.4586127866373</v>
       </c>
       <c r="C13" t="n">
-        <v>449.0971470946699</v>
+        <v>449.0971470946698</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5552249182736</v>
+        <v>380.5552249182734</v>
       </c>
       <c r="E13" t="n">
-        <v>314.2168485718198</v>
+        <v>314.2168485718196</v>
       </c>
       <c r="F13" t="n">
-        <v>248.9016183098487</v>
+        <v>248.9016183098485</v>
       </c>
       <c r="G13" t="n">
-        <v>162.0190184945949</v>
+        <v>162.0190184945948</v>
       </c>
       <c r="H13" t="n">
-        <v>90.66853207073768</v>
+        <v>90.6685320707377</v>
       </c>
       <c r="I13" t="n">
         <v>52.22828804395821</v>
@@ -5203,46 +5203,46 @@
         <v>323.0480639967852</v>
       </c>
       <c r="L13" t="n">
-        <v>609.6207763996177</v>
+        <v>609.6207763996175</v>
       </c>
       <c r="M13" t="n">
-        <v>917.814504044658</v>
+        <v>917.8145040446575</v>
       </c>
       <c r="N13" t="n">
         <v>1226.015755239913</v>
       </c>
       <c r="O13" t="n">
-        <v>1500.776539114133</v>
+        <v>1500.776539114132</v>
       </c>
       <c r="P13" t="n">
-        <v>1723.900336316502</v>
+        <v>1723.900336316501</v>
       </c>
       <c r="Q13" t="n">
-        <v>1819.541796732554</v>
+        <v>1819.541796732553</v>
       </c>
       <c r="R13" t="n">
-        <v>1777.361873211831</v>
+        <v>1777.36187321183</v>
       </c>
       <c r="S13" t="n">
-        <v>1654.102170124838</v>
+        <v>1654.102170124837</v>
       </c>
       <c r="T13" t="n">
-        <v>1510.68658283777</v>
+        <v>1510.686582837769</v>
       </c>
       <c r="U13" t="n">
-        <v>1303.117279721576</v>
+        <v>1303.117279721575</v>
       </c>
       <c r="V13" t="n">
-        <v>1130.007508751629</v>
+        <v>1130.007508751628</v>
       </c>
       <c r="W13" t="n">
-        <v>922.1650559506074</v>
+        <v>922.1650559506064</v>
       </c>
       <c r="X13" t="n">
-        <v>775.7502222885294</v>
+        <v>775.7502222885284</v>
       </c>
       <c r="Y13" t="n">
-        <v>636.5323603809379</v>
+        <v>636.5323603809377</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1705.933623604715</v>
+        <v>1368.864394511707</v>
       </c>
       <c r="C14" t="n">
-        <v>1418.545823900243</v>
+        <v>1081.476594807235</v>
       </c>
       <c r="D14" t="n">
-        <v>1141.854842529432</v>
+        <v>1081.476594807235</v>
       </c>
       <c r="E14" t="n">
-        <v>837.6413071671267</v>
+        <v>975.3205981732135</v>
       </c>
       <c r="F14" t="n">
-        <v>508.2301196134584</v>
+        <v>645.9094106195453</v>
       </c>
       <c r="G14" t="n">
-        <v>173.0504020080304</v>
+        <v>310.7296930141171</v>
       </c>
       <c r="H14" t="n">
         <v>77.49518418959828</v>
@@ -5279,22 +5279,22 @@
         <v>101.1919225494054</v>
       </c>
       <c r="K14" t="n">
-        <v>225.3142364061839</v>
+        <v>225.3142364061837</v>
       </c>
       <c r="L14" t="n">
-        <v>416.2007042492341</v>
+        <v>829.6853066541798</v>
       </c>
       <c r="M14" t="n">
-        <v>660.2681170534802</v>
+        <v>1476.010371198163</v>
       </c>
       <c r="N14" t="n">
-        <v>1306.593181597463</v>
+        <v>2122.335435742146</v>
       </c>
       <c r="O14" t="n">
-        <v>1908.801904999065</v>
+        <v>2347.55197969363</v>
       </c>
       <c r="P14" t="n">
-        <v>2310.434173064617</v>
+        <v>2520.626013817923</v>
       </c>
       <c r="Q14" t="n">
         <v>2590.891496707627</v>
@@ -5303,25 +5303,25 @@
         <v>2611.41440219791</v>
       </c>
       <c r="S14" t="n">
-        <v>2611.41440219791</v>
+        <v>2544.370224920425</v>
       </c>
       <c r="T14" t="n">
-        <v>2611.41440219791</v>
+        <v>2412.604306576028</v>
       </c>
       <c r="U14" t="n">
-        <v>2611.41440219791</v>
+        <v>2240.513988310895</v>
       </c>
       <c r="V14" t="n">
-        <v>2611.41440219791</v>
+        <v>2240.513988310895</v>
       </c>
       <c r="W14" t="n">
-        <v>2611.41440219791</v>
+        <v>1969.32005027672</v>
       </c>
       <c r="X14" t="n">
-        <v>2319.52336117277</v>
+        <v>1677.42900925158</v>
       </c>
       <c r="Y14" t="n">
-        <v>2010.958746432898</v>
+        <v>1368.864394511707</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>957.608292450596</v>
+        <v>957.6082924505956</v>
       </c>
       <c r="C15" t="n">
-        <v>783.155263169469</v>
+        <v>783.1552631694686</v>
       </c>
       <c r="D15" t="n">
-        <v>634.2208535082177</v>
+        <v>634.2208535082174</v>
       </c>
       <c r="E15" t="n">
-        <v>474.9833985027622</v>
+        <v>474.9833985027619</v>
       </c>
       <c r="F15" t="n">
-        <v>328.4488405296471</v>
+        <v>328.4488405296469</v>
       </c>
       <c r="G15" t="n">
-        <v>191.1857992161601</v>
+        <v>191.1857992161599</v>
       </c>
       <c r="H15" t="n">
-        <v>91.99236799559213</v>
+        <v>91.99236799559192</v>
       </c>
       <c r="I15" t="n">
         <v>52.22828804395821</v>
       </c>
       <c r="J15" t="n">
-        <v>117.4928861296181</v>
+        <v>187.4029713509376</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1487933228397</v>
+        <v>545.0588785441591</v>
       </c>
       <c r="L15" t="n">
-        <v>1017.465694311301</v>
+        <v>1087.375779532621</v>
       </c>
       <c r="M15" t="n">
-        <v>1663.790758855284</v>
+        <v>1455.814243996794</v>
       </c>
       <c r="N15" t="n">
-        <v>1907.911897219268</v>
+        <v>1699.935382360777</v>
       </c>
       <c r="O15" t="n">
-        <v>2109.015250688024</v>
+        <v>1901.038735829533</v>
       </c>
       <c r="P15" t="n">
-        <v>2566.363496141784</v>
+        <v>2358.386981283293</v>
       </c>
       <c r="Q15" t="n">
         <v>2611.41440219791</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>536.4586127866373</v>
+        <v>536.4586127866378</v>
       </c>
       <c r="C16" t="n">
-        <v>449.0971470946699</v>
+        <v>449.0971470946702</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5552249182736</v>
+        <v>380.5552249182738</v>
       </c>
       <c r="E16" t="n">
-        <v>314.2168485718197</v>
+        <v>314.21684857182</v>
       </c>
       <c r="F16" t="n">
         <v>248.9016183098487</v>
@@ -5428,7 +5428,7 @@
         <v>162.0190184945949</v>
       </c>
       <c r="H16" t="n">
-        <v>90.66853207073763</v>
+        <v>90.66853207073761</v>
       </c>
       <c r="I16" t="n">
         <v>52.22828804395821</v>
@@ -5437,28 +5437,28 @@
         <v>125.0220358874845</v>
       </c>
       <c r="K16" t="n">
-        <v>323.0480639967852</v>
+        <v>323.0480639967853</v>
       </c>
       <c r="L16" t="n">
-        <v>609.6207763996173</v>
+        <v>609.6207763996177</v>
       </c>
       <c r="M16" t="n">
-        <v>917.8145040446575</v>
+        <v>917.814504044658</v>
       </c>
       <c r="N16" t="n">
         <v>1226.015755239913</v>
       </c>
       <c r="O16" t="n">
-        <v>1500.776539114132</v>
+        <v>1500.776539114133</v>
       </c>
       <c r="P16" t="n">
-        <v>1723.900336316501</v>
+        <v>1723.900336316502</v>
       </c>
       <c r="Q16" t="n">
         <v>1819.541796732554</v>
       </c>
       <c r="R16" t="n">
-        <v>1777.36187321183</v>
+        <v>1777.361873211831</v>
       </c>
       <c r="S16" t="n">
         <v>1654.102170124838</v>
@@ -5473,13 +5473,13 @@
         <v>1130.007508751628</v>
       </c>
       <c r="W16" t="n">
-        <v>922.1650559506065</v>
+        <v>922.1650559506069</v>
       </c>
       <c r="X16" t="n">
-        <v>775.7502222885284</v>
+        <v>775.7502222885289</v>
       </c>
       <c r="Y16" t="n">
-        <v>636.5323603809377</v>
+        <v>636.5323603809381</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1126.091590193833</v>
+        <v>1320.624502997226</v>
       </c>
       <c r="C17" t="n">
-        <v>877.4053865104867</v>
+        <v>1071.93829931388</v>
       </c>
       <c r="D17" t="n">
-        <v>639.4160011608019</v>
+        <v>833.9489139641945</v>
       </c>
       <c r="E17" t="n">
-        <v>639.4160011608019</v>
+        <v>833.9489139641945</v>
       </c>
       <c r="F17" t="n">
-        <v>348.70640962826</v>
+        <v>543.2393224316526</v>
       </c>
       <c r="G17" t="n">
-        <v>52.22828804395821</v>
+        <v>246.7612008473507</v>
       </c>
       <c r="H17" t="n">
         <v>52.22828804395821</v>
@@ -5516,31 +5516,31 @@
         <v>268.5975715697584</v>
       </c>
       <c r="K17" t="n">
-        <v>392.7198854265368</v>
+        <v>713.6238438719899</v>
       </c>
       <c r="L17" t="n">
-        <v>672.0766946877017</v>
+        <v>904.5103117150402</v>
       </c>
       <c r="M17" t="n">
-        <v>1318.401759231685</v>
+        <v>1148.577724519286</v>
       </c>
       <c r="N17" t="n">
-        <v>1571.03224631856</v>
+        <v>1401.208211606162</v>
       </c>
       <c r="O17" t="n">
-        <v>2173.240969720162</v>
+        <v>1834.137343140111</v>
       </c>
       <c r="P17" t="n">
-        <v>2330.957078554901</v>
+        <v>2310.434173064618</v>
       </c>
       <c r="Q17" t="n">
-        <v>2611.41440219791</v>
+        <v>2590.891496707627</v>
       </c>
       <c r="R17" t="n">
         <v>2611.41440219791</v>
       </c>
       <c r="S17" t="n">
-        <v>2583.071820941552</v>
+        <v>2583.071820941551</v>
       </c>
       <c r="T17" t="n">
         <v>2490.007498618281</v>
@@ -5558,7 +5558,7 @@
         <v>1660.150415270706</v>
       </c>
       <c r="Y17" t="n">
-        <v>1390.28739655196</v>
+        <v>1586.948029804282</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>957.6082924505954</v>
+        <v>957.6082924505956</v>
       </c>
       <c r="C18" t="n">
-        <v>783.1552631694684</v>
+        <v>783.1552631694686</v>
       </c>
       <c r="D18" t="n">
-        <v>634.2208535082173</v>
+        <v>634.2208535082174</v>
       </c>
       <c r="E18" t="n">
-        <v>474.9833985027617</v>
+        <v>474.9833985027619</v>
       </c>
       <c r="F18" t="n">
-        <v>328.4488405296468</v>
+        <v>328.4488405296469</v>
       </c>
       <c r="G18" t="n">
         <v>191.1857992161601</v>
@@ -5592,22 +5592,22 @@
         <v>52.22828804395821</v>
       </c>
       <c r="J18" t="n">
-        <v>62.57284636393287</v>
+        <v>187.4029713509376</v>
       </c>
       <c r="K18" t="n">
-        <v>420.2287535571543</v>
+        <v>545.0588785441591</v>
       </c>
       <c r="L18" t="n">
-        <v>962.5456545456161</v>
+        <v>1087.375779532621</v>
       </c>
       <c r="M18" t="n">
-        <v>1368.888458770332</v>
+        <v>1311.165232078273</v>
       </c>
       <c r="N18" t="n">
-        <v>2015.213523314315</v>
+        <v>1699.935382360777</v>
       </c>
       <c r="O18" t="n">
-        <v>2216.316876783071</v>
+        <v>1901.038735829533</v>
       </c>
       <c r="P18" t="n">
         <v>2358.386981283293</v>
@@ -5616,10 +5616,10 @@
         <v>2611.41440219791</v>
       </c>
       <c r="R18" t="n">
-        <v>2601.376240184015</v>
+        <v>2601.376240184014</v>
       </c>
       <c r="S18" t="n">
-        <v>2455.222341599623</v>
+        <v>2455.222341599622</v>
       </c>
       <c r="T18" t="n">
         <v>2258.951946921028</v>
@@ -5634,10 +5634,10 @@
         <v>1541.43542844115</v>
       </c>
       <c r="X18" t="n">
-        <v>1333.583928235617</v>
+        <v>1333.583928235618</v>
       </c>
       <c r="Y18" t="n">
-        <v>1125.823629470663</v>
+        <v>1125.823629470664</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.8087926330996</v>
+        <v>265.8087926331003</v>
       </c>
       <c r="C19" t="n">
-        <v>217.1489229622584</v>
+        <v>217.148922962259</v>
       </c>
       <c r="D19" t="n">
-        <v>187.3085968069884</v>
+        <v>187.3085968069889</v>
       </c>
       <c r="E19" t="n">
-        <v>159.6718164816611</v>
+        <v>159.6718164816614</v>
       </c>
       <c r="F19" t="n">
-        <v>133.0581822408164</v>
+        <v>133.0581822408167</v>
       </c>
       <c r="G19" t="n">
-        <v>84.87717844668909</v>
+        <v>84.87717844668921</v>
       </c>
       <c r="H19" t="n">
         <v>52.22828804395821</v>
@@ -5677,46 +5677,46 @@
         <v>170.3029357903148</v>
       </c>
       <c r="L19" t="n">
-        <v>390.4134938706622</v>
+        <v>376.9242678302031</v>
       </c>
       <c r="M19" t="n">
-        <v>618.6558411527583</v>
+        <v>605.1666151122993</v>
       </c>
       <c r="N19" t="n">
-        <v>846.9057119850693</v>
+        <v>833.4164859446103</v>
       </c>
       <c r="O19" t="n">
-        <v>1041.715115496345</v>
+        <v>1028.225889455886</v>
       </c>
       <c r="P19" t="n">
-        <v>1184.887532335769</v>
+        <v>1171.39830629531</v>
       </c>
       <c r="Q19" t="n">
-        <v>1200.577612388878</v>
+        <v>1200.57761238888</v>
       </c>
       <c r="R19" t="n">
-        <v>1197.099284889281</v>
+        <v>1197.099284889283</v>
       </c>
       <c r="S19" t="n">
-        <v>1112.541177823415</v>
+        <v>1112.541177823417</v>
       </c>
       <c r="T19" t="n">
-        <v>1007.827186557473</v>
+        <v>1007.827186557475</v>
       </c>
       <c r="U19" t="n">
-        <v>838.9594794624056</v>
+        <v>838.959479462407</v>
       </c>
       <c r="V19" t="n">
-        <v>704.5513045135845</v>
+        <v>704.5513045135857</v>
       </c>
       <c r="W19" t="n">
-        <v>535.4104477336896</v>
+        <v>535.4104477336907</v>
       </c>
       <c r="X19" t="n">
-        <v>427.697210092738</v>
+        <v>427.6972100927389</v>
       </c>
       <c r="Y19" t="n">
-        <v>327.1809442062736</v>
+        <v>327.1809442062744</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1295.426850805862</v>
+        <v>1337.450238655058</v>
       </c>
       <c r="C20" t="n">
-        <v>1046.740647122516</v>
+        <v>1337.450238655058</v>
       </c>
       <c r="D20" t="n">
-        <v>808.7512617728312</v>
+        <v>1099.460853305373</v>
       </c>
       <c r="E20" t="n">
-        <v>543.2393224316523</v>
+        <v>833.948913964194</v>
       </c>
       <c r="F20" t="n">
-        <v>543.2393224316523</v>
+        <v>543.2393224316522</v>
       </c>
       <c r="G20" t="n">
-        <v>246.7612008473506</v>
+        <v>246.7612008473507</v>
       </c>
       <c r="H20" t="n">
         <v>52.22828804395821</v>
@@ -5753,31 +5753,31 @@
         <v>268.5975715697584</v>
       </c>
       <c r="K20" t="n">
-        <v>528.3747345397925</v>
+        <v>713.6238438719899</v>
       </c>
       <c r="L20" t="n">
-        <v>1132.745804787789</v>
+        <v>904.5103117150402</v>
       </c>
       <c r="M20" t="n">
-        <v>1376.813217592035</v>
+        <v>1148.577724519286</v>
       </c>
       <c r="N20" t="n">
-        <v>1629.44370467891</v>
+        <v>1401.208211606162</v>
       </c>
       <c r="O20" t="n">
-        <v>1854.660248630395</v>
+        <v>1834.137343140111</v>
       </c>
       <c r="P20" t="n">
-        <v>2330.957078554901</v>
+        <v>2310.434173064618</v>
       </c>
       <c r="Q20" t="n">
-        <v>2611.41440219791</v>
+        <v>2590.891496707627</v>
       </c>
       <c r="R20" t="n">
         <v>2611.41440219791</v>
       </c>
       <c r="S20" t="n">
-        <v>2583.071820941552</v>
+        <v>2583.071820941551</v>
       </c>
       <c r="T20" t="n">
         <v>2490.007498618281</v>
@@ -5789,13 +5789,13 @@
         <v>2145.832202287769</v>
       </c>
       <c r="W20" t="n">
-        <v>1913.339860274721</v>
+        <v>2126.826229184874</v>
       </c>
       <c r="X20" t="n">
-        <v>1660.150415270706</v>
+        <v>1873.63678418086</v>
       </c>
       <c r="Y20" t="n">
-        <v>1561.750377612918</v>
+        <v>1603.773765462114</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.6082924505956</v>
+        <v>957.6082924505959</v>
       </c>
       <c r="C21" t="n">
-        <v>783.1552631694686</v>
+        <v>783.1552631694689</v>
       </c>
       <c r="D21" t="n">
-        <v>634.2208535082174</v>
+        <v>634.2208535082177</v>
       </c>
       <c r="E21" t="n">
-        <v>474.9833985027619</v>
+        <v>474.9833985027622</v>
       </c>
       <c r="F21" t="n">
-        <v>328.4488405296471</v>
+        <v>328.4488405296472</v>
       </c>
       <c r="G21" t="n">
-        <v>191.1857992161601</v>
+        <v>191.1857992161604</v>
       </c>
       <c r="H21" t="n">
         <v>91.99236799559215</v>
@@ -5838,13 +5838,13 @@
         <v>1087.375779532621</v>
       </c>
       <c r="M21" t="n">
-        <v>1311.165232078273</v>
+        <v>1455.814243996794</v>
       </c>
       <c r="N21" t="n">
-        <v>1957.490296622255</v>
+        <v>1699.935382360777</v>
       </c>
       <c r="O21" t="n">
-        <v>2216.316876783071</v>
+        <v>1901.038735829533</v>
       </c>
       <c r="P21" t="n">
         <v>2358.386981283293</v>
@@ -5856,10 +5856,10 @@
         <v>2601.376240184014</v>
       </c>
       <c r="S21" t="n">
-        <v>2455.222341599622</v>
+        <v>2455.222341599623</v>
       </c>
       <c r="T21" t="n">
-        <v>2258.951946921028</v>
+        <v>2258.951946921029</v>
       </c>
       <c r="U21" t="n">
         <v>2030.824893401095</v>
@@ -5868,7 +5868,7 @@
         <v>1795.672785169352</v>
       </c>
       <c r="W21" t="n">
-        <v>1541.43542844115</v>
+        <v>1541.435428441151</v>
       </c>
       <c r="X21" t="n">
         <v>1333.583928235618</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.8087926330996</v>
+        <v>265.8087926331003</v>
       </c>
       <c r="C22" t="n">
-        <v>217.1489229622584</v>
+        <v>217.148922962259</v>
       </c>
       <c r="D22" t="n">
-        <v>187.3085968069884</v>
+        <v>187.3085968069889</v>
       </c>
       <c r="E22" t="n">
-        <v>159.6718164816611</v>
+        <v>159.6718164816614</v>
       </c>
       <c r="F22" t="n">
-        <v>133.0581822408164</v>
+        <v>133.0581822408167</v>
       </c>
       <c r="G22" t="n">
-        <v>84.87717844668909</v>
+        <v>84.87717844668921</v>
       </c>
       <c r="H22" t="n">
         <v>52.22828804395821</v>
@@ -5926,34 +5926,34 @@
         <v>1028.225889455886</v>
       </c>
       <c r="P22" t="n">
-        <v>1184.887532335769</v>
+        <v>1184.887532335771</v>
       </c>
       <c r="Q22" t="n">
-        <v>1200.577612388878</v>
+        <v>1200.57761238888</v>
       </c>
       <c r="R22" t="n">
-        <v>1197.099284889281</v>
+        <v>1197.099284889283</v>
       </c>
       <c r="S22" t="n">
-        <v>1112.541177823415</v>
+        <v>1112.541177823417</v>
       </c>
       <c r="T22" t="n">
-        <v>1007.827186557473</v>
+        <v>1007.827186557475</v>
       </c>
       <c r="U22" t="n">
-        <v>838.9594794624056</v>
+        <v>838.959479462407</v>
       </c>
       <c r="V22" t="n">
-        <v>704.5513045135845</v>
+        <v>704.5513045135857</v>
       </c>
       <c r="W22" t="n">
-        <v>535.4104477336896</v>
+        <v>535.4104477336907</v>
       </c>
       <c r="X22" t="n">
-        <v>427.697210092738</v>
+        <v>427.6972100927389</v>
       </c>
       <c r="Y22" t="n">
-        <v>327.1809442062736</v>
+        <v>327.1809442062744</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1595.568535656638</v>
+        <v>1595.568535656639</v>
       </c>
       <c r="C23" t="n">
-        <v>1346.882331973292</v>
+        <v>1346.882331973293</v>
       </c>
       <c r="D23" t="n">
-        <v>1108.892946623607</v>
+        <v>1108.892946623608</v>
       </c>
       <c r="E23" t="n">
-        <v>843.3810072824285</v>
+        <v>843.3810072824294</v>
       </c>
       <c r="F23" t="n">
-        <v>552.6714157498868</v>
+        <v>552.6714157498873</v>
       </c>
       <c r="G23" t="n">
-        <v>256.1932941655853</v>
+        <v>256.1932941655854</v>
       </c>
       <c r="H23" t="n">
-        <v>61.66038136219289</v>
+        <v>61.66038136219293</v>
       </c>
       <c r="I23" t="n">
-        <v>61.66038136219289</v>
+        <v>61.66038136219293</v>
       </c>
       <c r="J23" t="n">
         <v>278.0296648879931</v>
       </c>
       <c r="K23" t="n">
-        <v>402.1519787447714</v>
+        <v>723.0559371902245</v>
       </c>
       <c r="L23" t="n">
-        <v>916.0275526367757</v>
+        <v>1227.358291249407</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.113363598926</v>
+        <v>1471.425704053653</v>
       </c>
       <c r="N23" t="n">
-        <v>2290.717305853666</v>
+        <v>1724.056191140528</v>
       </c>
       <c r="O23" t="n">
-        <v>2515.93384980515</v>
+        <v>2326.264914542131</v>
       </c>
       <c r="P23" t="n">
-        <v>2992.230679729657</v>
+        <v>2802.561744466637</v>
       </c>
       <c r="Q23" t="n">
-        <v>3062.496162619361</v>
+        <v>3083.019068109646</v>
       </c>
       <c r="R23" t="n">
-        <v>3083.019068109644</v>
+        <v>3083.019068109646</v>
       </c>
       <c r="S23" t="n">
-        <v>3054.676486853285</v>
+        <v>3054.676486853287</v>
       </c>
       <c r="T23" t="n">
-        <v>2961.612164530015</v>
+        <v>2961.612164530016</v>
       </c>
       <c r="U23" t="n">
-        <v>2828.223442286007</v>
+        <v>2828.223442286009</v>
       </c>
       <c r="V23" t="n">
-        <v>2617.436868199502</v>
+        <v>2617.436868199504</v>
       </c>
       <c r="W23" t="n">
-        <v>2384.944526186454</v>
+        <v>2384.944526186455</v>
       </c>
       <c r="X23" t="n">
-        <v>2131.75508118244</v>
+        <v>2131.755081182441</v>
       </c>
       <c r="Y23" t="n">
-        <v>1861.892062463694</v>
+        <v>1861.892062463695</v>
       </c>
     </row>
     <row r="24">
@@ -6057,28 +6057,28 @@
         <v>337.8809338478818</v>
       </c>
       <c r="G24" t="n">
-        <v>200.6178925343948</v>
+        <v>200.6178925343949</v>
       </c>
       <c r="H24" t="n">
-        <v>101.4244613138268</v>
+        <v>101.4244613138269</v>
       </c>
       <c r="I24" t="n">
-        <v>61.66038136219289</v>
+        <v>61.66038136219293</v>
       </c>
       <c r="J24" t="n">
         <v>196.8350646691723</v>
       </c>
       <c r="K24" t="n">
-        <v>292.6703872199409</v>
+        <v>554.4909718623938</v>
       </c>
       <c r="L24" t="n">
-        <v>467.8553463579782</v>
+        <v>1096.807872850856</v>
       </c>
       <c r="M24" t="n">
-        <v>990.6973867149107</v>
+        <v>1320.597325396507</v>
       </c>
       <c r="N24" t="n">
-        <v>1709.367475679012</v>
+        <v>1564.718463760491</v>
       </c>
       <c r="O24" t="n">
         <v>1910.470829147768</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>275.2408859513343</v>
+        <v>275.240885951335</v>
       </c>
       <c r="C25" t="n">
-        <v>226.5810162804931</v>
+        <v>226.5810162804937</v>
       </c>
       <c r="D25" t="n">
-        <v>196.7406901252231</v>
+        <v>196.7406901252236</v>
       </c>
       <c r="E25" t="n">
-        <v>169.1039097998957</v>
+        <v>169.1039097998961</v>
       </c>
       <c r="F25" t="n">
-        <v>142.4902755590511</v>
+        <v>142.4902755590514</v>
       </c>
       <c r="G25" t="n">
-        <v>94.30927176492376</v>
+        <v>94.30927176492392</v>
       </c>
       <c r="H25" t="n">
-        <v>61.66038136219289</v>
+        <v>61.66038136219293</v>
       </c>
       <c r="I25" t="n">
-        <v>61.66038136219289</v>
+        <v>61.66038136219293</v>
       </c>
       <c r="J25" t="n">
-        <v>61.66038136219289</v>
+        <v>61.66038136219293</v>
       </c>
       <c r="K25" t="n">
-        <v>179.7350291085495</v>
+        <v>193.2242551490103</v>
       </c>
       <c r="L25" t="n">
-        <v>399.8455871888968</v>
+        <v>399.8455871888986</v>
       </c>
       <c r="M25" t="n">
-        <v>628.0879344709929</v>
+        <v>628.0879344709947</v>
       </c>
       <c r="N25" t="n">
-        <v>856.3378053033039</v>
+        <v>856.3378053033057</v>
       </c>
       <c r="O25" t="n">
-        <v>1051.14720881458</v>
+        <v>1051.147208814582</v>
       </c>
       <c r="P25" t="n">
-        <v>1194.319625654004</v>
+        <v>1194.319625654006</v>
       </c>
       <c r="Q25" t="n">
-        <v>1210.009705707113</v>
+        <v>1210.009705707115</v>
       </c>
       <c r="R25" t="n">
-        <v>1206.531378207516</v>
+        <v>1206.531378207517</v>
       </c>
       <c r="S25" t="n">
-        <v>1121.97327114165</v>
+        <v>1121.973271141651</v>
       </c>
       <c r="T25" t="n">
-        <v>1017.259279875708</v>
+        <v>1017.259279875709</v>
       </c>
       <c r="U25" t="n">
-        <v>848.3915727806402</v>
+        <v>848.3915727806416</v>
       </c>
       <c r="V25" t="n">
-        <v>713.983397831819</v>
+        <v>713.9833978318203</v>
       </c>
       <c r="W25" t="n">
-        <v>544.8425410519242</v>
+        <v>544.8425410519253</v>
       </c>
       <c r="X25" t="n">
-        <v>437.1293034109726</v>
+        <v>437.1293034109736</v>
       </c>
       <c r="Y25" t="n">
-        <v>336.6130375245083</v>
+        <v>336.6130375245091</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1877.746921070138</v>
+        <v>1877.746921070137</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.562181411832</v>
+        <v>1588.562181411831</v>
       </c>
       <c r="D26" t="n">
-        <v>1310.074260087187</v>
+        <v>1310.074260087186</v>
       </c>
       <c r="E26" t="n">
-        <v>1004.063784771048</v>
+        <v>1004.063784771047</v>
       </c>
       <c r="F26" t="n">
-        <v>672.8556572635462</v>
+        <v>672.8556572635453</v>
       </c>
       <c r="G26" t="n">
-        <v>335.8789997042841</v>
+        <v>335.8789997042833</v>
       </c>
       <c r="H26" t="n">
-        <v>100.8475509259305</v>
+        <v>100.8475509259304</v>
       </c>
       <c r="I26" t="n">
-        <v>73.78371482645653</v>
+        <v>73.7837148264565</v>
       </c>
       <c r="J26" t="n">
-        <v>290.1529983522568</v>
+        <v>290.1529983522567</v>
       </c>
       <c r="K26" t="n">
-        <v>735.1792706544882</v>
+        <v>649.2198564883055</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.550340902484</v>
+        <v>1253.590926736302</v>
       </c>
       <c r="M26" t="n">
-        <v>1624.096016608685</v>
+        <v>1942.676737698452</v>
       </c>
       <c r="N26" t="n">
-        <v>2309.699958863425</v>
+        <v>2628.280679953192</v>
       </c>
       <c r="O26" t="n">
-        <v>2911.908682265027</v>
+        <v>3230.489403354794</v>
       </c>
       <c r="P26" t="n">
-        <v>3388.205512189534</v>
+        <v>3388.205512189533</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.662835832543</v>
+        <v>3668.662835832542</v>
       </c>
       <c r="R26" t="n">
-        <v>3689.185741322827</v>
+        <v>3689.185741322825</v>
       </c>
       <c r="S26" t="n">
-        <v>3620.344624091508</v>
+        <v>3620.344624091506</v>
       </c>
       <c r="T26" t="n">
-        <v>3486.781765793277</v>
+        <v>3486.781765793275</v>
       </c>
       <c r="U26" t="n">
-        <v>3312.89450757431</v>
+        <v>3312.894507574308</v>
       </c>
       <c r="V26" t="n">
-        <v>3061.609397512844</v>
+        <v>3061.609397512843</v>
       </c>
       <c r="W26" t="n">
-        <v>2788.618519524835</v>
+        <v>2788.618519524834</v>
       </c>
       <c r="X26" t="n">
-        <v>2494.930538545861</v>
+        <v>2494.93053854586</v>
       </c>
       <c r="Y26" t="n">
-        <v>2184.568983852155</v>
+        <v>2184.568983852153</v>
       </c>
     </row>
     <row r="27">
@@ -6288,31 +6288,31 @@
         <v>655.7762802907159</v>
       </c>
       <c r="E27" t="n">
-        <v>496.5388252852605</v>
+        <v>496.5388252852604</v>
       </c>
       <c r="F27" t="n">
         <v>350.0042673121454</v>
       </c>
       <c r="G27" t="n">
-        <v>212.7412259986585</v>
+        <v>212.7412259986584</v>
       </c>
       <c r="H27" t="n">
-        <v>113.5477947780905</v>
+        <v>113.5477947780904</v>
       </c>
       <c r="I27" t="n">
-        <v>73.78371482645653</v>
+        <v>73.7837148264565</v>
       </c>
       <c r="J27" t="n">
-        <v>84.12827314643118</v>
+        <v>208.9583981334359</v>
       </c>
       <c r="K27" t="n">
-        <v>179.9635956971998</v>
+        <v>566.6143053266574</v>
       </c>
       <c r="L27" t="n">
-        <v>355.1485548352371</v>
+        <v>741.7992644646946</v>
       </c>
       <c r="M27" t="n">
-        <v>612.8970240952113</v>
+        <v>965.5887170103462</v>
       </c>
       <c r="N27" t="n">
         <v>1331.567113059313</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>570.5926192459732</v>
+        <v>570.5926192459729</v>
       </c>
       <c r="C28" t="n">
-        <v>481.4342136001717</v>
+        <v>481.4342136001714</v>
       </c>
       <c r="D28" t="n">
-        <v>411.0953514699415</v>
+        <v>411.0953514699411</v>
       </c>
       <c r="E28" t="n">
-        <v>342.9600351696538</v>
+        <v>342.9600351696535</v>
       </c>
       <c r="F28" t="n">
-        <v>275.8478649538489</v>
+        <v>275.8478649538486</v>
       </c>
       <c r="G28" t="n">
-        <v>187.1683251847612</v>
+        <v>187.168325184761</v>
       </c>
       <c r="H28" t="n">
-        <v>114.0208988070699</v>
+        <v>114.0208988070698</v>
       </c>
       <c r="I28" t="n">
-        <v>73.78371482645653</v>
+        <v>73.7837148264565</v>
       </c>
       <c r="J28" t="n">
         <v>144.8162818212302</v>
       </c>
       <c r="K28" t="n">
-        <v>341.0811290817786</v>
+        <v>341.0811290817785</v>
       </c>
       <c r="L28" t="n">
-        <v>625.8926606358584</v>
+        <v>625.8926606358583</v>
       </c>
       <c r="M28" t="n">
-        <v>932.3252074321458</v>
+        <v>932.3252074321459</v>
       </c>
       <c r="N28" t="n">
         <v>1238.765277778648</v>
@@ -6412,22 +6412,22 @@
         <v>1657.974270209648</v>
       </c>
       <c r="T28" t="n">
-        <v>1555.602229020109</v>
+        <v>1512.761742968746</v>
       </c>
       <c r="U28" t="n">
-        <v>1346.235985950081</v>
+        <v>1346.23598595008</v>
       </c>
       <c r="V28" t="n">
-        <v>1171.329275026299</v>
+        <v>1171.329275026298</v>
       </c>
       <c r="W28" t="n">
-        <v>961.689882271444</v>
+        <v>961.689882271443</v>
       </c>
       <c r="X28" t="n">
-        <v>813.4781086555322</v>
+        <v>813.4781086555311</v>
       </c>
       <c r="Y28" t="n">
-        <v>672.4633067941074</v>
+        <v>672.4633067941071</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.746921070138</v>
+        <v>1877.746921070137</v>
       </c>
       <c r="C29" t="n">
         <v>1588.562181411831</v>
@@ -6446,67 +6446,67 @@
         <v>1310.074260087186</v>
       </c>
       <c r="E29" t="n">
-        <v>1004.063784771048</v>
+        <v>1004.063784771047</v>
       </c>
       <c r="F29" t="n">
-        <v>672.8556572635457</v>
+        <v>672.8556572635451</v>
       </c>
       <c r="G29" t="n">
-        <v>335.8789997042833</v>
+        <v>335.8789997042832</v>
       </c>
       <c r="H29" t="n">
-        <v>100.8475509259305</v>
+        <v>100.8475509259304</v>
       </c>
       <c r="I29" t="n">
-        <v>73.78371482645653</v>
+        <v>73.7837148264565</v>
       </c>
       <c r="J29" t="n">
-        <v>122.7473493319037</v>
+        <v>290.1529983522567</v>
       </c>
       <c r="K29" t="n">
-        <v>567.7736216341351</v>
+        <v>735.1792706544882</v>
       </c>
       <c r="L29" t="n">
-        <v>935.010205646535</v>
+        <v>1339.550340902484</v>
       </c>
       <c r="M29" t="n">
-        <v>1624.096016608685</v>
+        <v>1644.618922098967</v>
       </c>
       <c r="N29" t="n">
-        <v>2309.699958863425</v>
+        <v>2330.222864353707</v>
       </c>
       <c r="O29" t="n">
-        <v>2911.908682265027</v>
+        <v>2932.431587755309</v>
       </c>
       <c r="P29" t="n">
-        <v>3388.205512189534</v>
+        <v>3408.728417679816</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.662835832543</v>
+        <v>3689.185741322825</v>
       </c>
       <c r="R29" t="n">
-        <v>3689.185741322827</v>
+        <v>3689.185741322825</v>
       </c>
       <c r="S29" t="n">
-        <v>3620.344624091507</v>
+        <v>3620.344624091506</v>
       </c>
       <c r="T29" t="n">
-        <v>3486.781765793276</v>
+        <v>3486.781765793275</v>
       </c>
       <c r="U29" t="n">
-        <v>3312.894507574309</v>
+        <v>3312.894507574308</v>
       </c>
       <c r="V29" t="n">
-        <v>3061.609397512844</v>
+        <v>3061.609397512843</v>
       </c>
       <c r="W29" t="n">
-        <v>2788.618519524835</v>
+        <v>2788.618519524834</v>
       </c>
       <c r="X29" t="n">
-        <v>2494.930538545861</v>
+        <v>2494.93053854586</v>
       </c>
       <c r="Y29" t="n">
-        <v>2184.568983852154</v>
+        <v>2184.568983852153</v>
       </c>
     </row>
     <row r="30">
@@ -6525,40 +6525,40 @@
         <v>655.7762802907159</v>
       </c>
       <c r="E30" t="n">
-        <v>496.5388252852605</v>
+        <v>496.5388252852604</v>
       </c>
       <c r="F30" t="n">
         <v>350.0042673121454</v>
       </c>
       <c r="G30" t="n">
-        <v>212.7412259986585</v>
+        <v>212.7412259986584</v>
       </c>
       <c r="H30" t="n">
-        <v>113.5477947780905</v>
+        <v>113.5477947780904</v>
       </c>
       <c r="I30" t="n">
-        <v>73.78371482645653</v>
+        <v>73.7837148264565</v>
       </c>
       <c r="J30" t="n">
         <v>208.9583981334359</v>
       </c>
       <c r="K30" t="n">
-        <v>304.7937206842046</v>
+        <v>566.6143053266574</v>
       </c>
       <c r="L30" t="n">
-        <v>847.1106216726663</v>
+        <v>1108.931206315119</v>
       </c>
       <c r="M30" t="n">
-        <v>1136.15167990724</v>
+        <v>1332.720658860771</v>
       </c>
       <c r="N30" t="n">
-        <v>1854.821768871341</v>
+        <v>1576.841797224754</v>
       </c>
       <c r="O30" t="n">
-        <v>2445.848818424059</v>
+        <v>1922.594162612031</v>
       </c>
       <c r="P30" t="n">
-        <v>2587.918922924282</v>
+        <v>2379.942408065791</v>
       </c>
       <c r="Q30" t="n">
         <v>2632.969828980408</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.7521331946097</v>
+        <v>570.5926192459729</v>
       </c>
       <c r="C31" t="n">
-        <v>438.5937275488081</v>
+        <v>481.4342136001714</v>
       </c>
       <c r="D31" t="n">
-        <v>368.2548654185778</v>
+        <v>411.0953514699411</v>
       </c>
       <c r="E31" t="n">
-        <v>300.11954911829</v>
+        <v>342.9600351696535</v>
       </c>
       <c r="F31" t="n">
-        <v>233.007378902485</v>
+        <v>275.8478649538486</v>
       </c>
       <c r="G31" t="n">
-        <v>144.3278391333973</v>
+        <v>187.168325184761</v>
       </c>
       <c r="H31" t="n">
-        <v>114.02089880707</v>
+        <v>114.0208988070698</v>
       </c>
       <c r="I31" t="n">
-        <v>73.78371482645653</v>
+        <v>73.7837148264565</v>
       </c>
       <c r="J31" t="n">
         <v>144.8162818212302</v>
       </c>
       <c r="K31" t="n">
-        <v>341.0811290817782</v>
+        <v>341.0811290817783</v>
       </c>
       <c r="L31" t="n">
-        <v>625.892660635858</v>
+        <v>625.8926606358582</v>
       </c>
       <c r="M31" t="n">
-        <v>932.3252074321455</v>
+        <v>932.3252074321458</v>
       </c>
       <c r="N31" t="n">
         <v>1238.765277778648</v>
       </c>
       <c r="O31" t="n">
-        <v>1511.764880804115</v>
+        <v>1511.764880804116</v>
       </c>
       <c r="P31" t="n">
-        <v>1733.127497157731</v>
+        <v>1733.127497157732</v>
       </c>
       <c r="Q31" t="n">
-        <v>1827.007776725031</v>
+        <v>1827.007776725032</v>
       </c>
       <c r="R31" t="n">
-        <v>1783.030913250474</v>
+        <v>1783.030913250475</v>
       </c>
       <c r="S31" t="n">
-        <v>1657.974270209647</v>
+        <v>1657.974270209648</v>
       </c>
       <c r="T31" t="n">
-        <v>1512.761742968745</v>
+        <v>1512.761742968746</v>
       </c>
       <c r="U31" t="n">
-        <v>1303.395499898717</v>
+        <v>1303.395499898719</v>
       </c>
       <c r="V31" t="n">
-        <v>1128.488788974936</v>
+        <v>1128.488788974937</v>
       </c>
       <c r="W31" t="n">
-        <v>918.8493962200806</v>
+        <v>918.8493962200821</v>
       </c>
       <c r="X31" t="n">
-        <v>770.6376226041687</v>
+        <v>813.4781086555316</v>
       </c>
       <c r="Y31" t="n">
-        <v>629.622820742744</v>
+        <v>672.4633067941071</v>
       </c>
     </row>
     <row r="32">
@@ -6692,43 +6692,43 @@
         <v>331.7350361372783</v>
       </c>
       <c r="H32" t="n">
-        <v>98.50052731275974</v>
+        <v>98.50052731275969</v>
       </c>
       <c r="I32" t="n">
-        <v>73.23363116711963</v>
+        <v>73.2336311671196</v>
       </c>
       <c r="J32" t="n">
-        <v>289.6029146929199</v>
+        <v>289.6029146929198</v>
       </c>
       <c r="K32" t="n">
         <v>734.6291869951513</v>
       </c>
       <c r="L32" t="n">
-        <v>1117.697863432995</v>
+        <v>1339.000257243147</v>
       </c>
       <c r="M32" t="n">
-        <v>1806.783674395145</v>
+        <v>2028.086068205297</v>
       </c>
       <c r="N32" t="n">
-        <v>2492.387616649885</v>
+        <v>2282.195775896578</v>
       </c>
       <c r="O32" t="n">
-        <v>3094.596340051487</v>
+        <v>2884.40449929818</v>
       </c>
       <c r="P32" t="n">
-        <v>3570.893169975994</v>
+        <v>3360.701329222687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3641.158652865698</v>
+        <v>3641.158652865696</v>
       </c>
       <c r="R32" t="n">
-        <v>3661.681558355981</v>
+        <v>3661.68155835598</v>
       </c>
       <c r="S32" t="n">
-        <v>3594.637381078496</v>
+        <v>3594.637381078494</v>
       </c>
       <c r="T32" t="n">
-        <v>3462.871462734099</v>
+        <v>3462.871462734098</v>
       </c>
       <c r="U32" t="n">
         <v>3290.781144468965</v>
@@ -6762,34 +6762,34 @@
         <v>655.226196631379</v>
       </c>
       <c r="E33" t="n">
-        <v>495.9887416259236</v>
+        <v>495.9887416259235</v>
       </c>
       <c r="F33" t="n">
         <v>349.4541836528085</v>
       </c>
       <c r="G33" t="n">
-        <v>212.1911423393216</v>
+        <v>212.1911423393215</v>
       </c>
       <c r="H33" t="n">
-        <v>112.9977111187536</v>
+        <v>112.9977111187535</v>
       </c>
       <c r="I33" t="n">
-        <v>73.23363116711963</v>
+        <v>73.2336311671196</v>
       </c>
       <c r="J33" t="n">
-        <v>83.57818948709428</v>
+        <v>208.408314474099</v>
       </c>
       <c r="K33" t="n">
-        <v>441.2340966803158</v>
+        <v>566.0642216673205</v>
       </c>
       <c r="L33" t="n">
-        <v>616.4190558183529</v>
+        <v>1108.381122655782</v>
       </c>
       <c r="M33" t="n">
-        <v>840.2085083640045</v>
+        <v>1476.819587119955</v>
       </c>
       <c r="N33" t="n">
-        <v>1331.017029399976</v>
+        <v>1720.940725483939</v>
       </c>
       <c r="O33" t="n">
         <v>1922.044078952694</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.4639559097991</v>
+        <v>557.4639559097989</v>
       </c>
       <c r="C34" t="n">
-        <v>470.1024902178315</v>
+        <v>470.1024902178313</v>
       </c>
       <c r="D34" t="n">
-        <v>401.5605680414351</v>
+        <v>401.5605680414349</v>
       </c>
       <c r="E34" t="n">
-        <v>335.2221916949813</v>
+        <v>335.2221916949811</v>
       </c>
       <c r="F34" t="n">
-        <v>269.9069614330102</v>
+        <v>269.9069614330101</v>
       </c>
       <c r="G34" t="n">
-        <v>183.0243616177564</v>
+        <v>183.0243616177563</v>
       </c>
       <c r="H34" t="n">
-        <v>111.6738751938989</v>
+        <v>111.673875193899</v>
       </c>
       <c r="I34" t="n">
-        <v>73.23363116711963</v>
+        <v>73.2336311671196</v>
       </c>
       <c r="J34" t="n">
         <v>146.0273790106459</v>
       </c>
       <c r="K34" t="n">
-        <v>344.0534071199467</v>
+        <v>344.0534071199465</v>
       </c>
       <c r="L34" t="n">
         <v>630.6261195227789</v>
@@ -6868,40 +6868,40 @@
         <v>938.8198471678191</v>
       </c>
       <c r="N34" t="n">
-        <v>1247.021098363075</v>
+        <v>1247.021098363074</v>
       </c>
       <c r="O34" t="n">
-        <v>1521.781882237295</v>
+        <v>1521.781882237294</v>
       </c>
       <c r="P34" t="n">
         <v>1744.905679439663</v>
       </c>
       <c r="Q34" t="n">
-        <v>1840.547139855716</v>
+        <v>1840.547139855715</v>
       </c>
       <c r="R34" t="n">
         <v>1798.367216334992</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.107513248</v>
+        <v>1675.107513247999</v>
       </c>
       <c r="T34" t="n">
-        <v>1531.691925960932</v>
+        <v>1531.691925960931</v>
       </c>
       <c r="U34" t="n">
-        <v>1324.122622844738</v>
+        <v>1324.122622844737</v>
       </c>
       <c r="V34" t="n">
-        <v>1151.01285187479</v>
+        <v>1151.012851874789</v>
       </c>
       <c r="W34" t="n">
-        <v>943.1703990737683</v>
+        <v>943.1703990737681</v>
       </c>
       <c r="X34" t="n">
-        <v>796.7555654116902</v>
+        <v>796.75556541169</v>
       </c>
       <c r="Y34" t="n">
-        <v>657.5377035040995</v>
+        <v>657.5377035040992</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1864.618257733964</v>
+        <v>1864.618257733963</v>
       </c>
       <c r="C35" t="n">
         <v>1577.230458029491</v>
@@ -6920,55 +6920,55 @@
         <v>1300.53947665868</v>
       </c>
       <c r="E35" t="n">
-        <v>996.3259412963753</v>
+        <v>996.3259412963746</v>
       </c>
       <c r="F35" t="n">
-        <v>666.9147537427068</v>
+        <v>666.9147537427064</v>
       </c>
       <c r="G35" t="n">
-        <v>331.7350361372787</v>
+        <v>331.7350361372783</v>
       </c>
       <c r="H35" t="n">
-        <v>98.50052731275976</v>
+        <v>98.50052731275971</v>
       </c>
       <c r="I35" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J35" t="n">
-        <v>289.6029146929199</v>
+        <v>122.1972656725668</v>
       </c>
       <c r="K35" t="n">
-        <v>413.7252285496983</v>
+        <v>567.2235379747982</v>
       </c>
       <c r="L35" t="n">
-        <v>1018.096298797694</v>
+        <v>1171.594608222794</v>
       </c>
       <c r="M35" t="n">
-        <v>1707.182109759844</v>
+        <v>1860.680419184944</v>
       </c>
       <c r="N35" t="n">
-        <v>2392.786052014585</v>
+        <v>2546.284361439684</v>
       </c>
       <c r="O35" t="n">
-        <v>2884.404499298182</v>
+        <v>3148.493084841286</v>
       </c>
       <c r="P35" t="n">
-        <v>3360.701329222688</v>
+        <v>3570.893169975993</v>
       </c>
       <c r="Q35" t="n">
-        <v>3641.158652865698</v>
+        <v>3641.158652865697</v>
       </c>
       <c r="R35" t="n">
         <v>3661.681558355981</v>
       </c>
       <c r="S35" t="n">
-        <v>3594.637381078496</v>
+        <v>3594.637381078495</v>
       </c>
       <c r="T35" t="n">
-        <v>3462.871462734099</v>
+        <v>3462.871462734098</v>
       </c>
       <c r="U35" t="n">
-        <v>3290.781144468966</v>
+        <v>3290.781144468965</v>
       </c>
       <c r="V35" t="n">
         <v>3041.292974361334</v>
@@ -6977,7 +6977,7 @@
         <v>2770.099036327159</v>
       </c>
       <c r="X35" t="n">
-        <v>2478.207995302019</v>
+        <v>2478.207995302018</v>
       </c>
       <c r="Y35" t="n">
         <v>2169.643380562146</v>
@@ -7011,7 +7011,7 @@
         <v>112.9977111187536</v>
       </c>
       <c r="I36" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J36" t="n">
         <v>208.408314474099</v>
@@ -7026,13 +7026,13 @@
         <v>1332.170575201434</v>
       </c>
       <c r="N36" t="n">
-        <v>2050.840664165535</v>
+        <v>1720.940725483939</v>
       </c>
       <c r="O36" t="n">
-        <v>2251.944017634291</v>
+        <v>1922.044078952694</v>
       </c>
       <c r="P36" t="n">
-        <v>2587.368839264945</v>
+        <v>2379.392324406454</v>
       </c>
       <c r="Q36" t="n">
         <v>2632.419745321072</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>557.4639559097993</v>
+        <v>557.4639559097991</v>
       </c>
       <c r="C37" t="n">
-        <v>470.1024902178316</v>
+        <v>470.1024902178315</v>
       </c>
       <c r="D37" t="n">
-        <v>401.5605680414352</v>
+        <v>401.5605680414351</v>
       </c>
       <c r="E37" t="n">
         <v>335.2221916949813</v>
       </c>
       <c r="F37" t="n">
-        <v>269.9069614330103</v>
+        <v>269.9069614330102</v>
       </c>
       <c r="G37" t="n">
-        <v>183.0243616177565</v>
+        <v>183.0243616177564</v>
       </c>
       <c r="H37" t="n">
         <v>111.6738751938991</v>
       </c>
       <c r="I37" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J37" t="n">
         <v>146.0273790106459</v>
@@ -7108,37 +7108,37 @@
         <v>1247.021098363074</v>
       </c>
       <c r="O37" t="n">
-        <v>1521.781882237295</v>
+        <v>1521.781882237294</v>
       </c>
       <c r="P37" t="n">
-        <v>1744.905679439663</v>
+        <v>1744.905679439662</v>
       </c>
       <c r="Q37" t="n">
-        <v>1840.547139855716</v>
+        <v>1840.547139855715</v>
       </c>
       <c r="R37" t="n">
         <v>1798.367216334992</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.107513248</v>
+        <v>1675.107513247999</v>
       </c>
       <c r="T37" t="n">
-        <v>1531.691925960932</v>
+        <v>1531.691925960931</v>
       </c>
       <c r="U37" t="n">
-        <v>1324.122622844738</v>
+        <v>1324.122622844737</v>
       </c>
       <c r="V37" t="n">
         <v>1151.01285187479</v>
       </c>
       <c r="W37" t="n">
-        <v>943.1703990737687</v>
+        <v>943.1703990737683</v>
       </c>
       <c r="X37" t="n">
-        <v>796.7555654116907</v>
+        <v>796.7555654116902</v>
       </c>
       <c r="Y37" t="n">
-        <v>657.5377035040998</v>
+        <v>657.5377035040995</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1864.618257733964</v>
+        <v>1864.618257733962</v>
       </c>
       <c r="C38" t="n">
-        <v>1577.230458029491</v>
+        <v>1577.23045802949</v>
       </c>
       <c r="D38" t="n">
-        <v>1300.53947665868</v>
+        <v>1300.539476658679</v>
       </c>
       <c r="E38" t="n">
-        <v>996.325941296375</v>
+        <v>996.3259412963744</v>
       </c>
       <c r="F38" t="n">
-        <v>666.9147537427068</v>
+        <v>666.9147537427061</v>
       </c>
       <c r="G38" t="n">
-        <v>331.7350361372787</v>
+        <v>331.735036137278</v>
       </c>
       <c r="H38" t="n">
-        <v>98.50052731275976</v>
+        <v>98.50052731275971</v>
       </c>
       <c r="I38" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J38" t="n">
-        <v>122.1972656725668</v>
+        <v>289.6029146929198</v>
       </c>
       <c r="K38" t="n">
-        <v>303.1349524316933</v>
+        <v>734.6291869951513</v>
       </c>
       <c r="L38" t="n">
-        <v>907.5060226796893</v>
+        <v>1339.000257243147</v>
       </c>
       <c r="M38" t="n">
         <v>1596.591833641839</v>
       </c>
       <c r="N38" t="n">
-        <v>2282.19577589658</v>
+        <v>2282.195775896579</v>
       </c>
       <c r="O38" t="n">
-        <v>2884.404499298182</v>
+        <v>2884.404499298181</v>
       </c>
       <c r="P38" t="n">
         <v>3360.701329222688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3641.158652865698</v>
+        <v>3641.158652865697</v>
       </c>
       <c r="R38" t="n">
         <v>3661.681558355981</v>
       </c>
       <c r="S38" t="n">
-        <v>3594.637381078496</v>
+        <v>3594.637381078495</v>
       </c>
       <c r="T38" t="n">
         <v>3462.871462734099</v>
       </c>
       <c r="U38" t="n">
-        <v>3290.781144468966</v>
+        <v>3290.781144468965</v>
       </c>
       <c r="V38" t="n">
-        <v>3041.292974361334</v>
+        <v>3041.292974361333</v>
       </c>
       <c r="W38" t="n">
-        <v>2770.099036327159</v>
+        <v>2770.099036327158</v>
       </c>
       <c r="X38" t="n">
-        <v>2478.207995302018</v>
+        <v>2478.207995302017</v>
       </c>
       <c r="Y38" t="n">
-        <v>2169.643380562146</v>
+        <v>2169.643380562145</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>112.9977111187536</v>
       </c>
       <c r="I39" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J39" t="n">
         <v>208.408314474099</v>
@@ -7260,7 +7260,7 @@
         <v>1108.381122655782</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.170575201434</v>
+        <v>1476.819587119955</v>
       </c>
       <c r="N39" t="n">
         <v>1720.940725483939</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.4639559097993</v>
+        <v>557.4639559097991</v>
       </c>
       <c r="C40" t="n">
-        <v>470.1024902178316</v>
+        <v>470.1024902178315</v>
       </c>
       <c r="D40" t="n">
-        <v>401.5605680414352</v>
+        <v>401.5605680414351</v>
       </c>
       <c r="E40" t="n">
         <v>335.2221916949813</v>
       </c>
       <c r="F40" t="n">
-        <v>269.9069614330103</v>
+        <v>269.9069614330102</v>
       </c>
       <c r="G40" t="n">
-        <v>183.0243616177565</v>
+        <v>183.0243616177564</v>
       </c>
       <c r="H40" t="n">
         <v>111.6738751938991</v>
       </c>
       <c r="I40" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J40" t="n">
-        <v>146.0273790106468</v>
+        <v>146.0273790106459</v>
       </c>
       <c r="K40" t="n">
-        <v>344.0534071199475</v>
+        <v>344.0534071199467</v>
       </c>
       <c r="L40" t="n">
-        <v>630.6261195227798</v>
+        <v>630.6261195227789</v>
       </c>
       <c r="M40" t="n">
-        <v>938.8198471678199</v>
+        <v>938.819847167819</v>
       </c>
       <c r="N40" t="n">
-        <v>1247.021098363075</v>
+        <v>1247.021098363074</v>
       </c>
       <c r="O40" t="n">
-        <v>1521.781882237295</v>
+        <v>1521.781882237294</v>
       </c>
       <c r="P40" t="n">
-        <v>1744.905679439663</v>
+        <v>1744.905679439662</v>
       </c>
       <c r="Q40" t="n">
-        <v>1840.547139855716</v>
+        <v>1840.547139855715</v>
       </c>
       <c r="R40" t="n">
         <v>1798.367216334992</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.107513248</v>
+        <v>1675.107513247999</v>
       </c>
       <c r="T40" t="n">
-        <v>1531.691925960932</v>
+        <v>1531.691925960931</v>
       </c>
       <c r="U40" t="n">
-        <v>1324.122622844738</v>
+        <v>1324.122622844737</v>
       </c>
       <c r="V40" t="n">
         <v>1151.01285187479</v>
       </c>
       <c r="W40" t="n">
-        <v>943.1703990737687</v>
+        <v>943.1703990737683</v>
       </c>
       <c r="X40" t="n">
-        <v>796.7555654116907</v>
+        <v>796.7555654116902</v>
       </c>
       <c r="Y40" t="n">
-        <v>657.5377035040998</v>
+        <v>657.5377035040995</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1864.618257733962</v>
+        <v>1864.618257733963</v>
       </c>
       <c r="C41" t="n">
-        <v>1577.23045802949</v>
+        <v>1577.230458029491</v>
       </c>
       <c r="D41" t="n">
-        <v>1300.539476658679</v>
+        <v>1300.53947665868</v>
       </c>
       <c r="E41" t="n">
-        <v>996.3259412963744</v>
+        <v>996.3259412963748</v>
       </c>
       <c r="F41" t="n">
-        <v>666.9147537427064</v>
+        <v>666.9147537427065</v>
       </c>
       <c r="G41" t="n">
         <v>331.7350361372783</v>
       </c>
       <c r="H41" t="n">
-        <v>98.50052731275974</v>
+        <v>98.50052731275977</v>
       </c>
       <c r="I41" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J41" t="n">
-        <v>289.6029146929199</v>
+        <v>289.6029146929198</v>
       </c>
       <c r="K41" t="n">
         <v>734.6291869951513</v>
       </c>
       <c r="L41" t="n">
-        <v>925.5156548382015</v>
+        <v>1339.000257243147</v>
       </c>
       <c r="M41" t="n">
-        <v>1614.601465800352</v>
+        <v>1617.114739132122</v>
       </c>
       <c r="N41" t="n">
-        <v>2300.205408055092</v>
+        <v>2302.718681386862</v>
       </c>
       <c r="O41" t="n">
-        <v>2902.414131456694</v>
+        <v>2904.927404788465</v>
       </c>
       <c r="P41" t="n">
-        <v>3378.7109613812</v>
+        <v>3381.224234712971</v>
       </c>
       <c r="Q41" t="n">
-        <v>3659.16828502421</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="R41" t="n">
         <v>3661.681558355981</v>
@@ -7439,22 +7439,22 @@
         <v>3594.637381078495</v>
       </c>
       <c r="T41" t="n">
-        <v>3462.871462734098</v>
+        <v>3462.871462734099</v>
       </c>
       <c r="U41" t="n">
-        <v>3290.781144468965</v>
+        <v>3290.781144468966</v>
       </c>
       <c r="V41" t="n">
-        <v>3041.292974361333</v>
+        <v>3041.292974361334</v>
       </c>
       <c r="W41" t="n">
-        <v>2770.099036327158</v>
+        <v>2770.099036327159</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.207995302017</v>
+        <v>2478.207995302018</v>
       </c>
       <c r="Y41" t="n">
-        <v>2169.643380562145</v>
+        <v>2169.643380562146</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>112.9977111187536</v>
       </c>
       <c r="I42" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J42" t="n">
         <v>208.408314474099</v>
       </c>
       <c r="K42" t="n">
-        <v>304.2436370248677</v>
+        <v>566.0642216673205</v>
       </c>
       <c r="L42" t="n">
-        <v>846.5605380133294</v>
+        <v>1108.381122655782</v>
       </c>
       <c r="M42" t="n">
-        <v>1531.398003671481</v>
+        <v>1332.170575201434</v>
       </c>
       <c r="N42" t="n">
-        <v>1928.917240342429</v>
+        <v>1576.291713565417</v>
       </c>
       <c r="O42" t="n">
-        <v>2130.020593811185</v>
+        <v>1922.044078952694</v>
       </c>
       <c r="P42" t="n">
-        <v>2587.368839264945</v>
+        <v>2379.392324406454</v>
       </c>
       <c r="Q42" t="n">
         <v>2632.419745321072</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>557.4639559097991</v>
+        <v>557.4639559097994</v>
       </c>
       <c r="C43" t="n">
-        <v>470.1024902178315</v>
+        <v>470.1024902178318</v>
       </c>
       <c r="D43" t="n">
-        <v>401.5605680414351</v>
+        <v>401.5605680414354</v>
       </c>
       <c r="E43" t="n">
-        <v>335.2221916949813</v>
+        <v>335.2221916949815</v>
       </c>
       <c r="F43" t="n">
-        <v>269.9069614330102</v>
+        <v>269.9069614330104</v>
       </c>
       <c r="G43" t="n">
         <v>183.0243616177565</v>
       </c>
       <c r="H43" t="n">
-        <v>111.6738751938991</v>
+        <v>111.6738751938992</v>
       </c>
       <c r="I43" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J43" t="n">
         <v>146.0273790106459</v>
       </c>
       <c r="K43" t="n">
-        <v>344.0534071199467</v>
+        <v>344.0534071199465</v>
       </c>
       <c r="L43" t="n">
         <v>630.6261195227789</v>
@@ -7588,31 +7588,31 @@
         <v>1744.905679439662</v>
       </c>
       <c r="Q43" t="n">
-        <v>1840.547139855715</v>
+        <v>1840.547139855717</v>
       </c>
       <c r="R43" t="n">
-        <v>1798.367216334992</v>
+        <v>1798.367216334993</v>
       </c>
       <c r="S43" t="n">
-        <v>1675.107513247999</v>
+        <v>1675.107513248</v>
       </c>
       <c r="T43" t="n">
-        <v>1531.691925960931</v>
+        <v>1531.691925960932</v>
       </c>
       <c r="U43" t="n">
-        <v>1324.122622844737</v>
+        <v>1324.122622844738</v>
       </c>
       <c r="V43" t="n">
         <v>1151.01285187479</v>
       </c>
       <c r="W43" t="n">
-        <v>943.1703990737683</v>
+        <v>943.1703990737689</v>
       </c>
       <c r="X43" t="n">
-        <v>796.7555654116902</v>
+        <v>796.7555654116908</v>
       </c>
       <c r="Y43" t="n">
-        <v>657.5377035040995</v>
+        <v>657.5377035040999</v>
       </c>
     </row>
     <row r="44">
@@ -7625,58 +7625,58 @@
         <v>1864.618257733963</v>
       </c>
       <c r="C44" t="n">
-        <v>1577.230458029491</v>
+        <v>1577.23045802949</v>
       </c>
       <c r="D44" t="n">
-        <v>1300.53947665868</v>
+        <v>1300.539476658679</v>
       </c>
       <c r="E44" t="n">
-        <v>996.3259412963748</v>
+        <v>996.3259412963741</v>
       </c>
       <c r="F44" t="n">
-        <v>666.9147537427066</v>
+        <v>666.9147537427059</v>
       </c>
       <c r="G44" t="n">
-        <v>331.7350361372785</v>
+        <v>331.7350361372778</v>
       </c>
       <c r="H44" t="n">
-        <v>98.50052731275971</v>
+        <v>98.50052731275973</v>
       </c>
       <c r="I44" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J44" t="n">
-        <v>176.6894012192303</v>
+        <v>122.1972656725668</v>
       </c>
       <c r="K44" t="n">
-        <v>621.7156735214617</v>
+        <v>567.2235379747983</v>
       </c>
       <c r="L44" t="n">
-        <v>1226.086743769458</v>
+        <v>1171.594608222794</v>
       </c>
       <c r="M44" t="n">
-        <v>1915.172554731608</v>
+        <v>1860.680419184945</v>
       </c>
       <c r="N44" t="n">
-        <v>2600.776496986347</v>
+        <v>2546.284361439685</v>
       </c>
       <c r="O44" t="n">
-        <v>3202.98522038795</v>
+        <v>3148.493084841287</v>
       </c>
       <c r="P44" t="n">
-        <v>3360.701329222688</v>
+        <v>3591.416075466277</v>
       </c>
       <c r="Q44" t="n">
-        <v>3641.158652865698</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="R44" t="n">
         <v>3661.681558355981</v>
       </c>
       <c r="S44" t="n">
-        <v>3594.637381078496</v>
+        <v>3594.637381078495</v>
       </c>
       <c r="T44" t="n">
-        <v>3462.871462734099</v>
+        <v>3462.871462734098</v>
       </c>
       <c r="U44" t="n">
         <v>3290.781144468965</v>
@@ -7685,10 +7685,10 @@
         <v>3041.292974361333</v>
       </c>
       <c r="W44" t="n">
-        <v>2770.099036327159</v>
+        <v>2770.099036327158</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.207995302018</v>
+        <v>2478.207995302017</v>
       </c>
       <c r="Y44" t="n">
         <v>2169.643380562145</v>
@@ -7716,34 +7716,34 @@
         <v>349.4541836528085</v>
       </c>
       <c r="G45" t="n">
-        <v>212.1911423393216</v>
+        <v>212.1911423393215</v>
       </c>
       <c r="H45" t="n">
-        <v>112.9977111187536</v>
+        <v>112.9977111187535</v>
       </c>
       <c r="I45" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J45" t="n">
         <v>208.408314474099</v>
       </c>
       <c r="K45" t="n">
-        <v>566.0642216673205</v>
+        <v>566.0642216673206</v>
       </c>
       <c r="L45" t="n">
-        <v>741.2491808053576</v>
+        <v>1108.381122655782</v>
       </c>
       <c r="M45" t="n">
-        <v>1426.086646463509</v>
+        <v>1332.170575201434</v>
       </c>
       <c r="N45" t="n">
-        <v>1928.917240342429</v>
+        <v>1576.291713565417</v>
       </c>
       <c r="O45" t="n">
-        <v>2130.020593811185</v>
+        <v>1922.044078952694</v>
       </c>
       <c r="P45" t="n">
-        <v>2587.368839264945</v>
+        <v>2379.392324406454</v>
       </c>
       <c r="Q45" t="n">
         <v>2632.419745321072</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.4639559097992</v>
+        <v>557.463955909799</v>
       </c>
       <c r="C46" t="n">
-        <v>470.1024902178316</v>
+        <v>470.1024902178313</v>
       </c>
       <c r="D46" t="n">
-        <v>401.5605680414353</v>
+        <v>401.5605680414349</v>
       </c>
       <c r="E46" t="n">
-        <v>335.2221916949815</v>
+        <v>335.2221916949811</v>
       </c>
       <c r="F46" t="n">
-        <v>269.9069614330105</v>
+        <v>269.90696143301</v>
       </c>
       <c r="G46" t="n">
-        <v>183.0243616177568</v>
+        <v>183.0243616177562</v>
       </c>
       <c r="H46" t="n">
         <v>111.6738751938991</v>
       </c>
       <c r="I46" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J46" t="n">
         <v>146.0273790106459</v>
       </c>
       <c r="K46" t="n">
-        <v>344.0534071199469</v>
+        <v>344.0534071199467</v>
       </c>
       <c r="L46" t="n">
-        <v>630.6261195227792</v>
+        <v>630.6261195227789</v>
       </c>
       <c r="M46" t="n">
-        <v>938.8198471678194</v>
+        <v>938.8198471678191</v>
       </c>
       <c r="N46" t="n">
-        <v>1247.021098363075</v>
+        <v>1247.021098363074</v>
       </c>
       <c r="O46" t="n">
         <v>1521.781882237294</v>
@@ -7837,19 +7837,19 @@
         <v>1531.691925960932</v>
       </c>
       <c r="U46" t="n">
-        <v>1324.122622844738</v>
+        <v>1324.122622844737</v>
       </c>
       <c r="V46" t="n">
         <v>1151.01285187479</v>
       </c>
       <c r="W46" t="n">
-        <v>943.1703990737689</v>
+        <v>943.1703990737683</v>
       </c>
       <c r="X46" t="n">
-        <v>796.7555654116909</v>
+        <v>796.7555654116902</v>
       </c>
       <c r="Y46" t="n">
-        <v>657.5377035040996</v>
+        <v>657.5377035040995</v>
       </c>
     </row>
   </sheetData>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.6880767567238</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
         <v>242.6424607116987</v>
@@ -8462,7 +8462,7 @@
         <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2891093383024</v>
+        <v>236.0112893083342</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8535,22 +8535,22 @@
         <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,10 +8620,10 @@
         <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
-        <v>134.2837701769765</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>15.51305584803555</v>
       </c>
       <c r="K11" t="n">
-        <v>280.9487643243803</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>406.3208603431685</v>
+        <v>406.3208603431687</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>397.6712903607144</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>83.02319187993362</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>426.8036484831629</v>
+        <v>426.803648483163</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>406.2665921010096</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>118.449438677484</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8930,22 +8930,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>406.3208603431685</v>
       </c>
       <c r="N14" t="n">
         <v>397.6712903607142</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>246.3799588190032</v>
+        <v>15.51305584803455</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>55.47478764210629</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>426.8036484831629</v>
+        <v>146.1101130490115</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>89.3639812304188</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>406.3208603431685</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>209.8106945277423</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>44.98621230703972</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>184.3973249283482</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>406.2665921010095</v>
+        <v>146.1101130490115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>137.0251001143997</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>209.8106945277423</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>44.98621230703972</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>146.1101130490115</v>
       </c>
       <c r="N21" t="n">
-        <v>406.2665921010096</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>58.30628958793915</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>326.2516222716707</v>
+        <v>316.5817032486181</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>44.98621230703972</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>302.0733210214959</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>146.1101130490117</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>237.3177214942125</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>40.88713424439916</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>34.30203708517445</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>123.0881390757406</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>178.1314304740906</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>61.6173418103406</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>44.98621230703972</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>65.9107128170927</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>146.110113049011</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,13 +10352,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>194.1234430250436</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>1.494162226671847</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>146.1101130490115</v>
       </c>
       <c r="N33" t="n">
-        <v>249.1791744161499</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10598,13 +10598,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>269.0928316485988</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>267.3575518181494</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>146.1101130490115</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>195.3077950812442</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>57.38926555792736</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>13.66077130752106</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>146.1101130490115</v>
       </c>
       <c r="N39" t="n">
-        <v>146.1101130490115</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>34.39097887346387</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>47.52487223812196</v>
+        <v>44.98621230703972</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>154.9475740474394</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>146.1101130490114</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.04256115824609</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>288.0877593840917</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>44.98621230703969</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11379,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>261.3226823383203</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>146.1101130490114</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181.9830161981032</v>
+        <v>107.1667975103189</v>
       </c>
       <c r="C11" t="n">
         <v>284.5139217074276</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.1714000086819</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>326.1170756781315</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>246.993288406555</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>305.4789685924737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>301.9748715999007</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>273.924071557103</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>196.076963341001</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>136.3024980960259</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.37373550471035</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.4482591609531</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>170.3694150824821</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>246.993288406555</v>
       </c>
       <c r="W14" t="n">
-        <v>268.4819986538331</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.84741111297626e-13</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.10644324443922</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>262.8568199477667</v>
+        <v>262.8568199477668</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>192.5875836753585</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>194.6940269197991</v>
       </c>
     </row>
     <row r="18">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>246.1993416465126</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>287.8024956172164</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24029,13 +24029,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>211.3515052210527</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>169.748351250348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>42.41208119084946</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>42.412081190848</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>42.41208119085027</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>42.41208119084779</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>8.15987277746899e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-2.751965322289607e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830188.2676211809</v>
+        <v>830188.267621181</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>875994.3906375194</v>
+        <v>875994.3906375193</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>875994.3906375195</v>
+        <v>875994.3906375194</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>944359.767384042</v>
+        <v>944359.7673840419</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>944359.767384042</v>
+        <v>944359.7673840419</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698529</v>
       </c>
       <c r="C2" t="n">
         <v>593975.3455698527</v>
@@ -26320,40 +26320,40 @@
         <v>594768.978769361</v>
       </c>
       <c r="E2" t="n">
-        <v>536450.5709136633</v>
+        <v>536450.5709136636</v>
       </c>
       <c r="F2" t="n">
-        <v>536450.5709136637</v>
+        <v>536450.5709136635</v>
       </c>
       <c r="G2" t="n">
-        <v>568850.0237788776</v>
+        <v>568850.0237788778</v>
       </c>
       <c r="H2" t="n">
-        <v>568850.023778878</v>
+        <v>568850.0237788777</v>
       </c>
       <c r="I2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="J2" t="n">
-        <v>594517.3129388839</v>
+        <v>594517.3129388841</v>
       </c>
       <c r="K2" t="n">
-        <v>594517.3129388841</v>
+        <v>594517.312938884</v>
       </c>
       <c r="L2" t="n">
+        <v>595255.2831516055</v>
+      </c>
+      <c r="M2" t="n">
         <v>595255.2831516057</v>
       </c>
-      <c r="M2" t="n">
-        <v>595255.2831516056</v>
-      </c>
       <c r="N2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516059</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.283151606</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516059</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>800234.3741441742</v>
+        <v>800234.3741441739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>30651.66404873212</v>
+        <v>30651.66404873201</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31352.39609097853</v>
+        <v>31352.39609097869</v>
       </c>
       <c r="J3" t="n">
-        <v>72182.30382024287</v>
+        <v>72182.30382024276</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32074.84049216857</v>
+        <v>32074.84049216843</v>
       </c>
       <c r="M3" t="n">
         <v>160980.1905683146</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32532.3355586954</v>
+        <v>32532.33555869547</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>425420.8672695345</v>
       </c>
       <c r="E4" t="n">
-        <v>153882.8510132557</v>
+        <v>153882.8510132558</v>
       </c>
       <c r="F4" t="n">
-        <v>153882.8510132557</v>
+        <v>153882.8510132558</v>
       </c>
       <c r="G4" t="n">
-        <v>179196.8633274966</v>
+        <v>179196.8633274965</v>
       </c>
       <c r="H4" t="n">
-        <v>179196.8633274966</v>
+        <v>179196.8633274965</v>
       </c>
       <c r="I4" t="n">
-        <v>193187.8074659648</v>
+        <v>193187.8074659649</v>
       </c>
       <c r="J4" t="n">
         <v>184059.016051526</v>
       </c>
       <c r="K4" t="n">
-        <v>184059.0160515259</v>
+        <v>184059.016051526</v>
       </c>
       <c r="L4" t="n">
         <v>185040.7893764561</v>
@@ -26457,7 +26457,7 @@
         <v>185040.7893764561</v>
       </c>
       <c r="P4" t="n">
-        <v>185040.7893764563</v>
+        <v>185040.7893764561</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>61210.18420721666</v>
+        <v>61210.18420721665</v>
       </c>
       <c r="F5" t="n">
         <v>61210.18420721666</v>
       </c>
       <c r="G5" t="n">
-        <v>64431.25263835774</v>
+        <v>64431.25263835773</v>
       </c>
       <c r="H5" t="n">
-        <v>64431.25263835774</v>
+        <v>64431.25263835773</v>
       </c>
       <c r="I5" t="n">
-        <v>71599.64356021609</v>
+        <v>71599.64356021612</v>
       </c>
       <c r="J5" t="n">
-        <v>77442.75228638633</v>
+        <v>77442.7522863863</v>
       </c>
       <c r="K5" t="n">
-        <v>77442.75228638631</v>
+        <v>77442.7522863863</v>
       </c>
       <c r="L5" t="n">
-        <v>77174.24498081933</v>
+        <v>77174.24498081932</v>
       </c>
       <c r="M5" t="n">
         <v>77174.24498081932</v>
@@ -26506,7 +26506,7 @@
         <v>77174.24498081932</v>
       </c>
       <c r="O5" t="n">
-        <v>77174.24498081933</v>
+        <v>77174.24498081932</v>
       </c>
       <c r="P5" t="n">
         <v>77174.24498081932</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134824.6064037492</v>
+        <v>134820.1928258812</v>
       </c>
       <c r="C6" t="n">
-        <v>134824.6064037492</v>
+        <v>134820.1928258811</v>
       </c>
       <c r="D6" t="n">
-        <v>133166.5418299827</v>
+        <v>133164.8649183198</v>
       </c>
       <c r="E6" t="n">
-        <v>-478876.8384509833</v>
+        <v>-479079.6133207688</v>
       </c>
       <c r="F6" t="n">
-        <v>321357.5356931913</v>
+        <v>321154.7608234051</v>
       </c>
       <c r="G6" t="n">
-        <v>294570.2437642911</v>
+        <v>294479.1911457649</v>
       </c>
       <c r="H6" t="n">
-        <v>325221.9078130237</v>
+        <v>325130.8551944968</v>
       </c>
       <c r="I6" t="n">
-        <v>299115.436034446</v>
+        <v>299115.4360344453</v>
       </c>
       <c r="J6" t="n">
-        <v>260833.2407807287</v>
+        <v>260830.6960558577</v>
       </c>
       <c r="K6" t="n">
-        <v>333015.5446009719</v>
+        <v>333012.9998761003</v>
       </c>
       <c r="L6" t="n">
-        <v>300965.4083021617</v>
+        <v>300965.4083021616</v>
       </c>
       <c r="M6" t="n">
-        <v>172060.0582260156</v>
+        <v>172060.0582260157</v>
       </c>
       <c r="N6" t="n">
-        <v>333040.2487943303</v>
+        <v>333040.2487943304</v>
       </c>
       <c r="O6" t="n">
-        <v>300507.9132356349</v>
+        <v>300507.913235635</v>
       </c>
       <c r="P6" t="n">
-        <v>333040.2487943301</v>
+        <v>333040.2487943305</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>80.75897006357994</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80.75897006357994</v>
+      </c>
+      <c r="G2" t="n">
+        <v>119.073550124495</v>
+      </c>
+      <c r="H2" t="n">
+        <v>119.073550124495</v>
+      </c>
+      <c r="I2" t="n">
+        <v>119.073550124495</v>
+      </c>
+      <c r="J2" t="n">
+        <v>78.97999950928441</v>
+      </c>
+      <c r="K2" t="n">
+        <v>78.97999950928441</v>
+      </c>
+      <c r="L2" t="n">
         <v>80.75897006357992</v>
       </c>
-      <c r="F2" t="n">
-        <v>80.75897006357992</v>
-      </c>
-      <c r="G2" t="n">
-        <v>119.0735501244951</v>
-      </c>
-      <c r="H2" t="n">
-        <v>119.0735501244951</v>
-      </c>
-      <c r="I2" t="n">
-        <v>119.0735501244951</v>
-      </c>
-      <c r="J2" t="n">
-        <v>78.97999950928438</v>
-      </c>
-      <c r="K2" t="n">
-        <v>78.97999950928433</v>
-      </c>
-      <c r="L2" t="n">
-        <v>80.75897006357989</v>
-      </c>
       <c r="M2" t="n">
+        <v>80.75897006357991</v>
+      </c>
+      <c r="N2" t="n">
+        <v>80.75897006357991</v>
+      </c>
+      <c r="O2" t="n">
+        <v>80.75897006357985</v>
+      </c>
+      <c r="P2" t="n">
         <v>80.75897006357988</v>
-      </c>
-      <c r="N2" t="n">
-        <v>80.75897006357988</v>
-      </c>
-      <c r="O2" t="n">
-        <v>80.75897006357989</v>
-      </c>
-      <c r="P2" t="n">
-        <v>80.75897006357995</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>675.5669467675834</v>
+      </c>
+      <c r="F3" t="n">
         <v>675.5669467675837</v>
-      </c>
-      <c r="F3" t="n">
-        <v>675.5669467675838</v>
       </c>
       <c r="G3" t="n">
         <v>675.5669467675837</v>
@@ -26777,7 +26777,7 @@
         <v>675.5669467675837</v>
       </c>
       <c r="P3" t="n">
-        <v>675.5669467675834</v>
+        <v>675.5669467675838</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26808,28 @@
         <v>652.8536005494776</v>
       </c>
       <c r="I4" t="n">
-        <v>770.754767027411</v>
+        <v>770.7547670274116</v>
       </c>
       <c r="J4" t="n">
-        <v>922.2964353307067</v>
+        <v>922.2964353307063</v>
       </c>
       <c r="K4" t="n">
-        <v>922.2964353307067</v>
+        <v>922.2964353307063</v>
       </c>
       <c r="L4" t="n">
-        <v>915.4203895889952</v>
+        <v>915.4203895889949</v>
       </c>
       <c r="M4" t="n">
-        <v>915.4203895889952</v>
+        <v>915.4203895889951</v>
       </c>
       <c r="N4" t="n">
-        <v>915.4203895889952</v>
+        <v>915.4203895889951</v>
       </c>
       <c r="O4" t="n">
-        <v>915.4203895889952</v>
+        <v>915.4203895889951</v>
       </c>
       <c r="P4" t="n">
-        <v>915.4203895889952</v>
+        <v>915.4203895889951</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.31458006091515</v>
+        <v>38.31458006091502</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.66541944836924</v>
+        <v>40.66541944836939</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.09355061521072</v>
+        <v>40.09355061521053</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.66541944836925</v>
+        <v>40.66541944836933</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>675.5669467675837</v>
+        <v>675.5669467675834</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>117.9011664779334</v>
+        <v>117.901166477934</v>
       </c>
       <c r="J4" t="n">
-        <v>151.5416683032956</v>
+        <v>151.5416683032947</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>645.9775548077662</v>
+        <v>645.9775548077664</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31458006091515</v>
+        <v>38.31458006091502</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.66541944836924</v>
+        <v>40.66541944836939</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.6774205741812</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.114653472833368</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>143.8126968518503</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>244.4696071661251</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>131.2870960739112</v>
       </c>
       <c r="H9" t="n">
         <v>105.359398494785</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27989,16 +27989,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>226.7441660601258</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>172.9559344402259</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3707753569164</v>
       </c>
       <c r="D10" t="n">
-        <v>142.5590519289129</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>212.5282322627954</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="C11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="D11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="E11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="F11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="G11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="H11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="I11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="T11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="U11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="V11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="W11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="X11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="Y11" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="C13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="D13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="E13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="F13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="G13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="H13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="I13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="J13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="K13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="L13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="M13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="N13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="O13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="P13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="R13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="S13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="T13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="U13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="V13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="W13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="X13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="C14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="D14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="E14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="F14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="G14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="H14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="I14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="T14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="U14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="V14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="W14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="X14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="C16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="D16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="E16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="F16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="G16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="H16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="I16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="J16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="K16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="L16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="M16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="N16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="O16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="P16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="R16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="S16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="T16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="U16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="V16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="W16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="X16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357994</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="C17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="D17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="E17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="F17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="G17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="H17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="I17" t="n">
         <v>105.7731972477636</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="T17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="U17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="V17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="W17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="X17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="Y17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
     </row>
     <row r="18">
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="C19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="D19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="E19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="F19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="H19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="I19" t="n">
         <v>118.8148116500916</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>13.6254808489486</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>13.62548084895036</v>
       </c>
       <c r="R19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="S19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="T19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="U19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="V19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="W19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="X19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="Y19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="C20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="D20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="E20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="F20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="G20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="H20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="I20" t="n">
         <v>105.7731972477636</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="T20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="U20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="V20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="W20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="X20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="Y20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
     </row>
     <row r="21">
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28956,25 +28956,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="C22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="D22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="E22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="F22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="H22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="I22" t="n">
         <v>118.8148116500916</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>13.62548084894851</v>
+        <v>13.62548084895036</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="S22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="T22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="U22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="V22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="W22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="X22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="C23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="D23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="E23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="F23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="G23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="H23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="I23" t="n">
         <v>105.7731972477636</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="T23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="U23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="V23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="W23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="X23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="Y23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
     </row>
     <row r="24">
@@ -29193,25 +29193,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="C25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="D25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="E25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="F25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="H25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="I25" t="n">
         <v>118.8148116500916</v>
@@ -29220,10 +29220,10 @@
         <v>7.229931837795775</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>13.62548084895028</v>
       </c>
       <c r="L25" t="n">
-        <v>13.62548084894851</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="S25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="T25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="U25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="V25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="W25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="X25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.073550124495</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="C26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="D26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="E26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="F26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="G26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="H26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="I26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="T26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="U26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="V26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="W26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="X26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="C28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="D28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="E28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="F28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="G28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="H28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="I28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="J28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="K28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="L28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="M28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="N28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="O28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="P28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="R28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="S28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="T28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="U28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="V28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="W28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="X28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.97999950928438</v>
+        <v>78.97999950928441</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="C29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="D29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="E29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="F29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="G29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="H29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="I29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="T29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="U29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="V29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="W29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="X29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="C31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="D31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="E31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="F31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="G31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="H31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="I31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="J31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="K31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="L31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="M31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="N31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="O31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="P31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="R31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="S31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="T31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="U31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="V31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="W31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="X31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.97999950928433</v>
+        <v>78.97999950928441</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="C32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="D32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="E32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="F32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="G32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="H32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="I32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="T32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="U32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="V32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="W32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="X32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="C34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="D34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="E34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="F34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="G34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="H34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="I34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="J34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="K34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="L34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="M34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="N34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="O34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="P34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="R34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="S34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="T34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="U34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="V34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="W34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="X34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357992</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357987</v>
       </c>
       <c r="K37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="L37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="M37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="N37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="O37" t="n">
-        <v>80.75897006358079</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="P37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="R37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="S37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J40" t="n">
-        <v>80.75897006358079</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="K40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="L40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="M40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="N40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="O40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="P40" t="n">
         <v>80.75897006357988</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="R40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="S40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.75897006357988</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="C41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="D41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="E41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="F41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="G41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="H41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="I41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="T41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="V41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="W41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="X41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="C43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="D43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="E43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="F43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="G43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="H43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="I43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="J43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="K43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="L43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="M43" t="n">
-        <v>80.75897006357982</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="N43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="O43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="P43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006358126</v>
       </c>
       <c r="R43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="S43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="T43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="U43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="V43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="W43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="X43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.75897006357989</v>
+        <v>80.75897006357985</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="C44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="D44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="E44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="F44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="G44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="H44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="I44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="T44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="V44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="W44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="X44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="C46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="D46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="E46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="F46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="G46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="H46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="I46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="J46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="K46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="L46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="M46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="N46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="O46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="P46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="R46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="S46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="T46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="U46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="V46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="W46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="X46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357988</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.715847022181239</v>
+        <v>2.715847022181238</v>
       </c>
       <c r="H11" t="n">
-        <v>27.81366831591362</v>
+        <v>27.81366831591361</v>
       </c>
       <c r="I11" t="n">
         <v>104.7026923226423</v>
       </c>
       <c r="J11" t="n">
-        <v>230.5041211988551</v>
+        <v>230.504121198855</v>
       </c>
       <c r="K11" t="n">
-        <v>345.465925647787</v>
+        <v>345.4659256477869</v>
       </c>
       <c r="L11" t="n">
-        <v>428.5810289528662</v>
+        <v>428.5810289528661</v>
       </c>
       <c r="M11" t="n">
-        <v>476.8789734335818</v>
+        <v>476.8789734335816</v>
       </c>
       <c r="N11" t="n">
-        <v>484.5953737853543</v>
+        <v>484.5953737853541</v>
       </c>
       <c r="O11" t="n">
-        <v>457.5896699585396</v>
+        <v>457.5896699585394</v>
       </c>
       <c r="P11" t="n">
-        <v>390.5421965984402</v>
+        <v>390.5421965984401</v>
       </c>
       <c r="Q11" t="n">
-        <v>293.2809251165745</v>
+        <v>293.2809251165743</v>
       </c>
       <c r="R11" t="n">
-        <v>170.5993255070924</v>
+        <v>170.5993255070923</v>
       </c>
       <c r="S11" t="n">
-        <v>61.88736401795504</v>
+        <v>61.88736401795502</v>
       </c>
       <c r="T11" t="n">
         <v>11.88862033959838</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2172677617744991</v>
+        <v>0.217267761774499</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.453106262858576</v>
       </c>
       <c r="H12" t="n">
-        <v>14.03394732813415</v>
+        <v>14.03394732813414</v>
       </c>
       <c r="I12" t="n">
-        <v>50.03019369929748</v>
+        <v>50.03019369929746</v>
       </c>
       <c r="J12" t="n">
         <v>137.2866754747219</v>
       </c>
       <c r="K12" t="n">
-        <v>234.6447950862465</v>
+        <v>234.6447950862464</v>
       </c>
       <c r="L12" t="n">
-        <v>315.5088839597097</v>
+        <v>315.5088839597096</v>
       </c>
       <c r="M12" t="n">
-        <v>368.1839859883331</v>
+        <v>368.1839859883329</v>
       </c>
       <c r="N12" t="n">
-        <v>377.9287205318014</v>
+        <v>377.9287205318013</v>
       </c>
       <c r="O12" t="n">
-        <v>345.730944917935</v>
+        <v>345.7309449179349</v>
       </c>
       <c r="P12" t="n">
-        <v>277.4795634751609</v>
+        <v>277.4795634751608</v>
       </c>
       <c r="Q12" t="n">
         <v>185.4877397992807</v>
       </c>
       <c r="R12" t="n">
-        <v>90.22005375888602</v>
+        <v>90.220053758886</v>
       </c>
       <c r="S12" t="n">
         <v>26.99081150528976</v>
       </c>
       <c r="T12" t="n">
-        <v>5.857037963013294</v>
+        <v>5.857037963013292</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09559909624069585</v>
+        <v>0.09559909624069581</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,25 +31908,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.21823547777761</v>
+        <v>1.218235477777609</v>
       </c>
       <c r="H13" t="n">
-        <v>10.83122088424094</v>
+        <v>10.83122088424093</v>
       </c>
       <c r="I13" t="n">
-        <v>36.63566327716668</v>
+        <v>36.63566327716666</v>
       </c>
       <c r="J13" t="n">
-        <v>86.129248278877</v>
+        <v>86.12924827887697</v>
       </c>
       <c r="K13" t="n">
         <v>141.5368127817986</v>
       </c>
       <c r="L13" t="n">
-        <v>181.1183909415912</v>
+        <v>181.1183909415911</v>
       </c>
       <c r="M13" t="n">
-        <v>190.9639485756302</v>
+        <v>190.9639485756301</v>
       </c>
       <c r="N13" t="n">
         <v>186.4232527039138</v>
@@ -31941,16 +31941,16 @@
         <v>102.0106089619051</v>
       </c>
       <c r="R13" t="n">
-        <v>54.77629702807324</v>
+        <v>54.77629702807322</v>
       </c>
       <c r="S13" t="n">
-        <v>21.23052191726979</v>
+        <v>21.23052191726978</v>
       </c>
       <c r="T13" t="n">
-        <v>5.205187950504331</v>
+        <v>5.205187950504329</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0664492078787788</v>
+        <v>0.06644920787877877</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,19 +31996,19 @@
         <v>104.7026923226423</v>
       </c>
       <c r="J14" t="n">
-        <v>230.5041211988552</v>
+        <v>230.5041211988551</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4659256477871</v>
+        <v>345.465925647787</v>
       </c>
       <c r="L14" t="n">
-        <v>428.5810289528663</v>
+        <v>428.5810289528662</v>
       </c>
       <c r="M14" t="n">
         <v>476.8789734335818</v>
       </c>
       <c r="N14" t="n">
-        <v>484.5953737853544</v>
+        <v>484.5953737853543</v>
       </c>
       <c r="O14" t="n">
         <v>457.5896699585396</v>
@@ -32023,7 +32023,7 @@
         <v>170.5993255070924</v>
       </c>
       <c r="S14" t="n">
-        <v>61.88736401795505</v>
+        <v>61.88736401795504</v>
       </c>
       <c r="T14" t="n">
         <v>11.88862033959838</v>
@@ -32081,7 +32081,7 @@
         <v>234.6447950862465</v>
       </c>
       <c r="L15" t="n">
-        <v>315.5088839597098</v>
+        <v>315.5088839597097</v>
       </c>
       <c r="M15" t="n">
         <v>368.1839859883331</v>
@@ -32090,25 +32090,25 @@
         <v>377.9287205318014</v>
       </c>
       <c r="O15" t="n">
-        <v>345.7309449179351</v>
+        <v>345.730944917935</v>
       </c>
       <c r="P15" t="n">
-        <v>277.479563475161</v>
+        <v>277.4795634751609</v>
       </c>
       <c r="Q15" t="n">
         <v>185.4877397992807</v>
       </c>
       <c r="R15" t="n">
-        <v>90.22005375888604</v>
+        <v>90.22005375888602</v>
       </c>
       <c r="S15" t="n">
-        <v>26.99081150528977</v>
+        <v>26.99081150528976</v>
       </c>
       <c r="T15" t="n">
-        <v>5.857037963013295</v>
+        <v>5.857037963013294</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09559909624069586</v>
+        <v>0.09559909624069585</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,10 +32154,10 @@
         <v>36.63566327716668</v>
       </c>
       <c r="J16" t="n">
-        <v>86.12924827887701</v>
+        <v>86.129248278877</v>
       </c>
       <c r="K16" t="n">
-        <v>141.5368127817987</v>
+        <v>141.5368127817986</v>
       </c>
       <c r="L16" t="n">
         <v>181.1183909415912</v>
@@ -32172,19 +32172,19 @@
         <v>172.1920473498753</v>
       </c>
       <c r="P16" t="n">
-        <v>147.340043603212</v>
+        <v>147.3400436032119</v>
       </c>
       <c r="Q16" t="n">
         <v>102.0106089619051</v>
       </c>
       <c r="R16" t="n">
-        <v>54.77629702807325</v>
+        <v>54.77629702807324</v>
       </c>
       <c r="S16" t="n">
         <v>21.23052191726979</v>
       </c>
       <c r="T16" t="n">
-        <v>5.205187950504332</v>
+        <v>5.205187950504331</v>
       </c>
       <c r="U16" t="n">
         <v>0.0664492078787788</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.715847022181238</v>
+        <v>2.715847022181239</v>
       </c>
       <c r="H44" t="n">
-        <v>27.81366831591361</v>
+        <v>27.81366831591362</v>
       </c>
       <c r="I44" t="n">
         <v>104.7026923226423</v>
       </c>
       <c r="J44" t="n">
-        <v>230.504121198855</v>
+        <v>230.5041211988552</v>
       </c>
       <c r="K44" t="n">
-        <v>345.4659256477869</v>
+        <v>345.4659256477871</v>
       </c>
       <c r="L44" t="n">
-        <v>428.5810289528661</v>
+        <v>428.5810289528663</v>
       </c>
       <c r="M44" t="n">
-        <v>476.8789734335816</v>
+        <v>476.8789734335818</v>
       </c>
       <c r="N44" t="n">
-        <v>484.5953737853541</v>
+        <v>484.5953737853544</v>
       </c>
       <c r="O44" t="n">
-        <v>457.5896699585394</v>
+        <v>457.5896699585396</v>
       </c>
       <c r="P44" t="n">
-        <v>390.5421965984401</v>
+        <v>390.5421965984402</v>
       </c>
       <c r="Q44" t="n">
-        <v>293.2809251165743</v>
+        <v>293.2809251165745</v>
       </c>
       <c r="R44" t="n">
-        <v>170.5993255070923</v>
+        <v>170.5993255070924</v>
       </c>
       <c r="S44" t="n">
-        <v>61.88736401795502</v>
+        <v>61.88736401795505</v>
       </c>
       <c r="T44" t="n">
         <v>11.88862033959838</v>
       </c>
       <c r="U44" t="n">
-        <v>0.217267761774499</v>
+        <v>0.2172677617744991</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,46 +34439,46 @@
         <v>1.453106262858576</v>
       </c>
       <c r="H45" t="n">
-        <v>14.03394732813414</v>
+        <v>14.03394732813415</v>
       </c>
       <c r="I45" t="n">
-        <v>50.03019369929746</v>
+        <v>50.03019369929748</v>
       </c>
       <c r="J45" t="n">
         <v>137.2866754747219</v>
       </c>
       <c r="K45" t="n">
-        <v>234.6447950862464</v>
+        <v>234.6447950862465</v>
       </c>
       <c r="L45" t="n">
-        <v>315.5088839597096</v>
+        <v>315.5088839597098</v>
       </c>
       <c r="M45" t="n">
-        <v>368.1839859883329</v>
+        <v>368.1839859883331</v>
       </c>
       <c r="N45" t="n">
-        <v>377.9287205318013</v>
+        <v>377.9287205318014</v>
       </c>
       <c r="O45" t="n">
-        <v>345.7309449179349</v>
+        <v>345.7309449179351</v>
       </c>
       <c r="P45" t="n">
-        <v>277.4795634751608</v>
+        <v>277.479563475161</v>
       </c>
       <c r="Q45" t="n">
         <v>185.4877397992807</v>
       </c>
       <c r="R45" t="n">
-        <v>90.220053758886</v>
+        <v>90.22005375888604</v>
       </c>
       <c r="S45" t="n">
-        <v>26.99081150528976</v>
+        <v>26.99081150528977</v>
       </c>
       <c r="T45" t="n">
-        <v>5.857037963013292</v>
+        <v>5.857037963013295</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09559909624069581</v>
+        <v>0.09559909624069586</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,25 +34515,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.218235477777609</v>
+        <v>1.21823547777761</v>
       </c>
       <c r="H46" t="n">
-        <v>10.83122088424093</v>
+        <v>10.83122088424094</v>
       </c>
       <c r="I46" t="n">
-        <v>36.63566327716666</v>
+        <v>36.63566327716668</v>
       </c>
       <c r="J46" t="n">
-        <v>86.12924827887697</v>
+        <v>86.12924827887701</v>
       </c>
       <c r="K46" t="n">
-        <v>141.5368127817986</v>
+        <v>141.5368127817987</v>
       </c>
       <c r="L46" t="n">
-        <v>181.1183909415911</v>
+        <v>181.1183909415912</v>
       </c>
       <c r="M46" t="n">
-        <v>190.9639485756301</v>
+        <v>190.9639485756302</v>
       </c>
       <c r="N46" t="n">
         <v>186.4232527039138</v>
@@ -34542,22 +34542,22 @@
         <v>172.1920473498753</v>
       </c>
       <c r="P46" t="n">
-        <v>147.3400436032119</v>
+        <v>147.340043603212</v>
       </c>
       <c r="Q46" t="n">
         <v>102.0106089619051</v>
       </c>
       <c r="R46" t="n">
-        <v>54.77629702807322</v>
+        <v>54.77629702807325</v>
       </c>
       <c r="S46" t="n">
-        <v>21.23052191726978</v>
+        <v>21.23052191726979</v>
       </c>
       <c r="T46" t="n">
-        <v>5.205187950504329</v>
+        <v>5.205187950504332</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06644920787877877</v>
+        <v>0.0664492078787788</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
         <v>6.876045741711437</v>
@@ -35182,7 +35182,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>6.598225711743297</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,10 +35340,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O10" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>218.5548318442426</v>
+        <v>64.97127252020431</v>
       </c>
       <c r="K11" t="n">
-        <v>406.3248389271868</v>
+        <v>125.3760746028063</v>
       </c>
       <c r="L11" t="n">
-        <v>192.814613982879</v>
+        <v>610.4758285333293</v>
       </c>
       <c r="M11" t="n">
         <v>652.8536005494776</v>
       </c>
       <c r="N11" t="n">
-        <v>255.1823101887634</v>
+        <v>652.8536005494776</v>
       </c>
       <c r="O11" t="n">
-        <v>608.2916397995982</v>
+        <v>227.4914585368527</v>
       </c>
       <c r="P11" t="n">
-        <v>159.3092008431706</v>
+        <v>159.3092008431705</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.97523524212497</v>
+        <v>70.97523524212485</v>
       </c>
       <c r="R11" t="n">
-        <v>20.73020756594272</v>
+        <v>20.73020756594266</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>136.540084148464</v>
       </c>
       <c r="K12" t="n">
-        <v>96.80335611188752</v>
+        <v>179.8265479918211</v>
       </c>
       <c r="L12" t="n">
-        <v>547.7948494832947</v>
+        <v>176.9545041798355</v>
       </c>
       <c r="M12" t="n">
         <v>652.8536005494776</v>
       </c>
       <c r="N12" t="n">
-        <v>246.5870084484681</v>
+        <v>652.8536005494776</v>
       </c>
       <c r="O12" t="n">
         <v>596.99701975022</v>
       </c>
       <c r="P12" t="n">
-        <v>261.9545947383147</v>
+        <v>143.5051560608306</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.5059657132592</v>
+        <v>45.50596571325914</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.52903822578415</v>
+        <v>73.52903822578413</v>
       </c>
       <c r="K13" t="n">
         <v>200.0262910194957</v>
       </c>
       <c r="L13" t="n">
-        <v>289.4673862654873</v>
+        <v>289.4673862654872</v>
       </c>
       <c r="M13" t="n">
         <v>311.3067956010507</v>
@@ -35586,7 +35586,7 @@
         <v>225.3775729316853</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.60753577379067</v>
+        <v>96.60753577379064</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>49.45821667216887</v>
+        <v>49.45821667216885</v>
       </c>
       <c r="K14" t="n">
         <v>125.3760746028065</v>
       </c>
       <c r="L14" t="n">
-        <v>192.8146139828791</v>
+        <v>610.4758285333294</v>
       </c>
       <c r="M14" t="n">
-        <v>246.5327402063091</v>
+        <v>652.8536005494776</v>
       </c>
       <c r="N14" t="n">
         <v>652.8536005494776</v>
       </c>
       <c r="O14" t="n">
-        <v>608.2916397995982</v>
+        <v>227.4914585368528</v>
       </c>
       <c r="P14" t="n">
-        <v>405.6891596621739</v>
+        <v>174.8222566912052</v>
       </c>
       <c r="Q14" t="n">
-        <v>283.2902259020297</v>
+        <v>70.97523524212497</v>
       </c>
       <c r="R14" t="n">
-        <v>20.73020756594275</v>
+        <v>20.73020756594272</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>65.92383645016153</v>
+        <v>136.540084148464</v>
       </c>
       <c r="K15" t="n">
-        <v>361.2685931244662</v>
+        <v>361.2685931244661</v>
       </c>
       <c r="L15" t="n">
-        <v>547.7948494832948</v>
+        <v>547.7948494832947</v>
       </c>
       <c r="M15" t="n">
-        <v>652.8536005494776</v>
+        <v>372.1600651153262</v>
       </c>
       <c r="N15" t="n">
         <v>246.5870084484681</v>
@@ -35744,7 +35744,7 @@
         <v>461.9679247007679</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.50596571325923</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>218.5548318442426</v>
       </c>
       <c r="K17" t="n">
-        <v>125.3760746028065</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L17" t="n">
-        <v>282.1785952132978</v>
+        <v>192.814613982879</v>
       </c>
       <c r="M17" t="n">
-        <v>652.8536005494776</v>
+        <v>246.5327402063091</v>
       </c>
       <c r="N17" t="n">
         <v>255.1823101887634</v>
       </c>
       <c r="O17" t="n">
-        <v>608.2916397995982</v>
+        <v>437.3021530645951</v>
       </c>
       <c r="P17" t="n">
-        <v>159.3092008431706</v>
+        <v>481.1079090146533</v>
       </c>
       <c r="Q17" t="n">
         <v>283.2902259020296</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>20.73020756594272</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.44904880805521</v>
+        <v>136.540084148464</v>
       </c>
       <c r="K18" t="n">
         <v>361.2685931244661</v>
@@ -35969,16 +35969,16 @@
         <v>547.7948494832947</v>
       </c>
       <c r="M18" t="n">
-        <v>410.4472769946629</v>
+        <v>226.0499520663147</v>
       </c>
       <c r="N18" t="n">
-        <v>652.8536005494776</v>
+        <v>392.6971214974796</v>
       </c>
       <c r="O18" t="n">
         <v>203.1347004734906</v>
       </c>
       <c r="P18" t="n">
-        <v>143.5051560608307</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q18" t="n">
         <v>255.5832534491083</v>
@@ -36045,7 +36045,7 @@
         <v>119.2673209559158</v>
       </c>
       <c r="L19" t="n">
-        <v>222.3338970508559</v>
+        <v>208.7084162019073</v>
       </c>
       <c r="M19" t="n">
         <v>230.5478255374708</v>
@@ -36060,7 +36060,7 @@
         <v>144.6186028681054</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.84856571021075</v>
+        <v>29.47404655916111</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>218.5548318442426</v>
       </c>
       <c r="K20" t="n">
-        <v>262.4011747172061</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L20" t="n">
-        <v>610.4758285333294</v>
+        <v>192.814613982879</v>
       </c>
       <c r="M20" t="n">
         <v>246.5327402063091</v>
@@ -36133,7 +36133,7 @@
         <v>255.1823101887634</v>
       </c>
       <c r="O20" t="n">
-        <v>227.4914585368528</v>
+        <v>437.3021530645951</v>
       </c>
       <c r="P20" t="n">
         <v>481.1079090146533</v>
@@ -36142,7 +36142,7 @@
         <v>283.2902259020296</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>20.73020756594272</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>547.7948494832947</v>
       </c>
       <c r="M21" t="n">
-        <v>226.0499520663147</v>
+        <v>372.1600651153262</v>
       </c>
       <c r="N21" t="n">
-        <v>652.8536005494776</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O21" t="n">
-        <v>261.4409900614297</v>
+        <v>203.1347004734906</v>
       </c>
       <c r="P21" t="n">
-        <v>143.5051560608307</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q21" t="n">
         <v>255.5832534491083</v>
@@ -36294,7 +36294,7 @@
         <v>196.777175263915</v>
       </c>
       <c r="P22" t="n">
-        <v>158.2440837170539</v>
+        <v>158.2440837170558</v>
       </c>
       <c r="Q22" t="n">
         <v>15.84856571021075</v>
@@ -36358,28 +36358,28 @@
         <v>218.5548318442426</v>
       </c>
       <c r="K23" t="n">
-        <v>125.3760746028065</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L23" t="n">
-        <v>519.0662362545497</v>
+        <v>509.3963172314971</v>
       </c>
       <c r="M23" t="n">
-        <v>696.0462736991416</v>
+        <v>246.5327402063091</v>
       </c>
       <c r="N23" t="n">
-        <v>692.5292346007475</v>
+        <v>255.1823101887634</v>
       </c>
       <c r="O23" t="n">
-        <v>227.4914585368528</v>
+        <v>608.2916397995982</v>
       </c>
       <c r="P23" t="n">
         <v>481.1079090146533</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.97523524212497</v>
+        <v>283.2902259020296</v>
       </c>
       <c r="R23" t="n">
-        <v>20.73020756594272</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>136.540084148464</v>
       </c>
       <c r="K24" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244661</v>
       </c>
       <c r="L24" t="n">
-        <v>176.9545041798356</v>
+        <v>547.7948494832947</v>
       </c>
       <c r="M24" t="n">
-        <v>528.1232730878106</v>
+        <v>226.0499520663147</v>
       </c>
       <c r="N24" t="n">
-        <v>725.9293827920217</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O24" t="n">
-        <v>203.1347004734906</v>
+        <v>349.2448135225022</v>
       </c>
       <c r="P24" t="n">
         <v>461.9679247007679</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>119.2673209559158</v>
+        <v>132.8928018048661</v>
       </c>
       <c r="L25" t="n">
-        <v>222.3338970508559</v>
+        <v>208.7084162019073</v>
       </c>
       <c r="M25" t="n">
         <v>230.5478255374708</v>
@@ -36595,13 +36595,13 @@
         <v>218.5548318442426</v>
       </c>
       <c r="K26" t="n">
-        <v>449.5214871739712</v>
+        <v>362.6937960970189</v>
       </c>
       <c r="L26" t="n">
         <v>610.4758285333294</v>
       </c>
       <c r="M26" t="n">
-        <v>287.4198744507082</v>
+        <v>696.0462736991416</v>
       </c>
       <c r="N26" t="n">
         <v>692.5292346007475</v>
@@ -36610,7 +36610,7 @@
         <v>608.2916397995982</v>
       </c>
       <c r="P26" t="n">
-        <v>481.1079090146533</v>
+        <v>159.3092008431706</v>
       </c>
       <c r="Q26" t="n">
         <v>283.2902259020296</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>10.44904880805521</v>
+        <v>136.540084148464</v>
       </c>
       <c r="K27" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244661</v>
       </c>
       <c r="L27" t="n">
         <v>176.9545041798356</v>
       </c>
       <c r="M27" t="n">
-        <v>260.3519891514892</v>
+        <v>226.0499520663147</v>
       </c>
       <c r="N27" t="n">
-        <v>725.9293827920217</v>
+        <v>369.6751475242087</v>
       </c>
       <c r="O27" t="n">
         <v>596.99701975022</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>71.75006767148861</v>
+        <v>71.75006767148864</v>
       </c>
       <c r="K28" t="n">
         <v>198.2473204652002</v>
@@ -36768,10 +36768,10 @@
         <v>275.7571747731994</v>
       </c>
       <c r="P28" t="n">
-        <v>223.5986023773898</v>
+        <v>223.5986023773899</v>
       </c>
       <c r="Q28" t="n">
-        <v>94.82856521949513</v>
+        <v>94.82856521949516</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>49.45821667216885</v>
+        <v>218.5548318442426</v>
       </c>
       <c r="K29" t="n">
         <v>449.5214871739712</v>
       </c>
       <c r="L29" t="n">
-        <v>370.9460444569696</v>
+        <v>610.4758285333294</v>
       </c>
       <c r="M29" t="n">
-        <v>696.0462736991416</v>
+        <v>308.1500820166497</v>
       </c>
       <c r="N29" t="n">
         <v>692.5292346007475</v>
@@ -36853,7 +36853,7 @@
         <v>283.2902259020296</v>
       </c>
       <c r="R29" t="n">
-        <v>20.73020756594272</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>136.540084148464</v>
       </c>
       <c r="K30" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244661</v>
       </c>
       <c r="L30" t="n">
         <v>547.7948494832947</v>
       </c>
       <c r="M30" t="n">
-        <v>291.9606648834074</v>
+        <v>226.0499520663147</v>
       </c>
       <c r="N30" t="n">
-        <v>725.9293827920217</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O30" t="n">
-        <v>596.99701975022</v>
+        <v>349.2448135225015</v>
       </c>
       <c r="P30" t="n">
-        <v>143.5051560608307</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.5059657132592</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.75006767148855</v>
+        <v>71.75006767148864</v>
       </c>
       <c r="K31" t="n">
-        <v>198.2473204652001</v>
+        <v>198.2473204652002</v>
       </c>
       <c r="L31" t="n">
         <v>287.6884157111917</v>
       </c>
       <c r="M31" t="n">
-        <v>309.5278250467551</v>
+        <v>309.5278250467552</v>
       </c>
       <c r="N31" t="n">
         <v>309.5354245924268</v>
       </c>
       <c r="O31" t="n">
-        <v>275.7571747731993</v>
+        <v>275.7571747731994</v>
       </c>
       <c r="P31" t="n">
-        <v>223.5986023773897</v>
+        <v>223.5986023773899</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.82856521949508</v>
+        <v>94.82856521949516</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>449.5214871739712</v>
       </c>
       <c r="L32" t="n">
-        <v>386.9380570079226</v>
+        <v>610.4758285333294</v>
       </c>
       <c r="M32" t="n">
         <v>696.0462736991416</v>
       </c>
       <c r="N32" t="n">
-        <v>692.5292346007475</v>
+        <v>256.6764724154352</v>
       </c>
       <c r="O32" t="n">
         <v>608.2916397995982</v>
@@ -37087,7 +37087,7 @@
         <v>481.1079090146533</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.97523524212497</v>
+        <v>283.2902259020296</v>
       </c>
       <c r="R32" t="n">
         <v>20.73020756594272</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>10.44904880805521</v>
+        <v>136.540084148464</v>
       </c>
       <c r="K33" t="n">
         <v>361.2685931244661</v>
       </c>
       <c r="L33" t="n">
-        <v>176.9545041798356</v>
+        <v>547.7948494832947</v>
       </c>
       <c r="M33" t="n">
-        <v>226.0499520663147</v>
+        <v>372.1600651153262</v>
       </c>
       <c r="N33" t="n">
-        <v>495.766182864618</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O33" t="n">
-        <v>596.99701975022</v>
+        <v>203.1347004734906</v>
       </c>
       <c r="P33" t="n">
         <v>461.9679247007679</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.52903822578412</v>
+        <v>73.52903822578415</v>
       </c>
       <c r="K34" t="n">
         <v>200.0262910194957</v>
       </c>
       <c r="L34" t="n">
-        <v>289.4673862654872</v>
+        <v>289.4673862654873</v>
       </c>
       <c r="M34" t="n">
         <v>311.3067956010507</v>
@@ -37245,7 +37245,7 @@
         <v>225.3775729316853</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.60753577379064</v>
+        <v>96.60753577379067</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>218.5548318442426</v>
+        <v>49.45821667216885</v>
       </c>
       <c r="K35" t="n">
-        <v>125.3760746028065</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L35" t="n">
         <v>610.4758285333294</v>
@@ -37318,13 +37318,13 @@
         <v>692.5292346007475</v>
       </c>
       <c r="O35" t="n">
-        <v>496.5842901854516</v>
+        <v>608.2916397995982</v>
       </c>
       <c r="P35" t="n">
-        <v>481.1079090146533</v>
+        <v>426.6667526613201</v>
       </c>
       <c r="Q35" t="n">
-        <v>283.2902259020296</v>
+        <v>70.97523524212497</v>
       </c>
       <c r="R35" t="n">
         <v>20.73020756594272</v>
@@ -37394,16 +37394,16 @@
         <v>226.0499520663147</v>
       </c>
       <c r="N36" t="n">
-        <v>725.9293827920217</v>
+        <v>392.6971214974796</v>
       </c>
       <c r="O36" t="n">
         <v>203.1347004734906</v>
       </c>
       <c r="P36" t="n">
-        <v>338.8129511420749</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.5059657132592</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.52903822578411</v>
+        <v>73.52903822578409</v>
       </c>
       <c r="K37" t="n">
         <v>200.0262910194957</v>
@@ -37476,13 +37476,13 @@
         <v>311.3143951467223</v>
       </c>
       <c r="O37" t="n">
-        <v>277.5361453274958</v>
+        <v>277.5361453274949</v>
       </c>
       <c r="P37" t="n">
         <v>225.3775729316853</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.60753577379063</v>
+        <v>96.60753577379066</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>49.45821667216885</v>
+        <v>218.5548318442426</v>
       </c>
       <c r="K38" t="n">
-        <v>182.7653401607338</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L38" t="n">
         <v>610.4758285333294</v>
       </c>
       <c r="M38" t="n">
-        <v>696.0462736991416</v>
+        <v>260.1935115138301</v>
       </c>
       <c r="N38" t="n">
         <v>692.5292346007475</v>
@@ -37628,10 +37628,10 @@
         <v>547.7948494832947</v>
       </c>
       <c r="M39" t="n">
-        <v>226.0499520663147</v>
+        <v>372.1600651153262</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6971214974796</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O39" t="n">
         <v>203.1347004734906</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.52903822578502</v>
+        <v>73.52903822578413</v>
       </c>
       <c r="K40" t="n">
         <v>200.0262910194957</v>
@@ -37719,7 +37719,7 @@
         <v>225.3775729316853</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.60753577379063</v>
+        <v>96.60753577379066</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>449.5214871739712</v>
       </c>
       <c r="L41" t="n">
-        <v>192.814613982879</v>
+        <v>610.4758285333294</v>
       </c>
       <c r="M41" t="n">
-        <v>696.0462736991416</v>
+        <v>280.9237190797729</v>
       </c>
       <c r="N41" t="n">
         <v>692.5292346007475</v>
@@ -37801,7 +37801,7 @@
         <v>283.2902259020296</v>
       </c>
       <c r="R41" t="n">
-        <v>2.538659931082238</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>136.540084148464</v>
       </c>
       <c r="K42" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244661</v>
       </c>
       <c r="L42" t="n">
         <v>547.7948494832947</v>
       </c>
       <c r="M42" t="n">
-        <v>691.7550158163147</v>
+        <v>226.0499520663147</v>
       </c>
       <c r="N42" t="n">
-        <v>401.5345824959075</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O42" t="n">
-        <v>203.1347004734906</v>
+        <v>349.244813522502</v>
       </c>
       <c r="P42" t="n">
         <v>461.9679247007679</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.5059657132592</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.52903822578412</v>
+        <v>73.52903822578408</v>
       </c>
       <c r="K43" t="n">
-        <v>200.0262910194957</v>
+        <v>200.0262910194956</v>
       </c>
       <c r="L43" t="n">
         <v>289.4673862654872</v>
       </c>
       <c r="M43" t="n">
-        <v>311.3067956010506</v>
+        <v>311.3067956010507</v>
       </c>
       <c r="N43" t="n">
         <v>311.3143951467223</v>
@@ -37956,7 +37956,7 @@
         <v>225.3775729316853</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.60753577379064</v>
+        <v>96.60753577379201</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>104.5007778304148</v>
+        <v>49.45821667216887</v>
       </c>
       <c r="K44" t="n">
-        <v>449.5214871739711</v>
+        <v>449.5214871739713</v>
       </c>
       <c r="L44" t="n">
-        <v>610.4758285333293</v>
+        <v>610.4758285333295</v>
       </c>
       <c r="M44" t="n">
-        <v>696.0462736991414</v>
+        <v>696.0462736991416</v>
       </c>
       <c r="N44" t="n">
-        <v>692.5292346007474</v>
+        <v>692.5292346007476</v>
       </c>
       <c r="O44" t="n">
-        <v>608.291639799598</v>
+        <v>608.2916397995982</v>
       </c>
       <c r="P44" t="n">
-        <v>159.3092008431705</v>
+        <v>447.3969602272624</v>
       </c>
       <c r="Q44" t="n">
-        <v>283.2902259020295</v>
+        <v>70.97523524212502</v>
       </c>
       <c r="R44" t="n">
-        <v>20.73020756594266</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>136.540084148464</v>
+        <v>136.5400841484641</v>
       </c>
       <c r="K45" t="n">
-        <v>361.2685931244661</v>
+        <v>361.2685931244662</v>
       </c>
       <c r="L45" t="n">
-        <v>176.9545041798355</v>
+        <v>547.7948494832948</v>
       </c>
       <c r="M45" t="n">
-        <v>691.7550158163145</v>
+        <v>226.0499520663148</v>
       </c>
       <c r="N45" t="n">
-        <v>507.9096907867882</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O45" t="n">
-        <v>203.1347004734905</v>
+        <v>349.244813522502</v>
       </c>
       <c r="P45" t="n">
-        <v>461.9679247007678</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.50596571325914</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.52903822578415</v>
+        <v>73.52903822578412</v>
       </c>
       <c r="K46" t="n">
         <v>200.0262910194957</v>
@@ -38193,7 +38193,7 @@
         <v>225.3775729316853</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.60753577379066</v>
+        <v>96.60753577379064</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
